--- a/!parsed_items_100/1299/1299_499-600.xlsx
+++ b/!parsed_items_100/1299/1299_499-600.xlsx
@@ -639,40 +639,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CHILIROSE</t>
+          <t>DOC JOHNSON</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Эротический комплект со штанишками SM</t>
+          <t>Вагина с эффектом женской эякуляции</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id-28091-1299</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-17447-1299</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
         <v>99999</v>
@@ -684,17 +676,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28091/28091_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28091/28091_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28091/28091_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28091/28091_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17447/17447_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17447/17447_2_650.jpg</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комплект сексуальной одежды для девушки. Кружевной бюст с мягкими чашечками на спине снабжён застёжкой-удлинителем, тонкие бретельки завязываются на шее. Бюст комплектуется чёрными прозрачными брюками на широкой кружевной кокетке, расклешенными книзу. Эротический комплект со штанишками SM.  Эротический комплект со штанишками SM. Модель: cr-4480smb. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Юбки, брюки, шорты. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
+          <t xml:space="preserve">Изготовлена из высококачественного супер эластичного материала, имеет анатомическую форму и внутренний рельефВаши влажные и самые смелые фантазии теперь в ваших руках с эта ультра-реалистичная вагина обладает эффектом сквиртинга Женская эякуляция! Изготовлен из невероятно реалистичного материала ULTRASKYN , шприц и жидкость в комплекте. Вагина с эффектом женской эякуляции Squirting Pussy.  Вагина с эффектом женской эякуляции Squirting Pussy. Модель: docjohn-0683-50. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный. Материал: Ultraskin (вторая кожа). Батареек нет в комплекте. Бренд: DOC JOHNSON. </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -709,7 +701,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>Ultraskin (вторая кожа)</t>
         </is>
       </c>
       <c r="S2" t="inlineStr"/>
@@ -724,11 +716,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="X2" t="n">
+        <v>7.425</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>14</v>
+      </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
@@ -747,7 +749,7 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>лиф, штанишки, стринги</t>
+          <t>вагина, шприц, смазка, порошок для бережного хранения мастурбатора</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -767,40 +769,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DEVIL ANGEL</t>
+          <t>DOC JOHNSON</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Эротичный комплект из трех предметов L</t>
+          <t>Стимулятор простаты и ануса Men's</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id-26930-1299</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-26301-1299</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>99999</v>
@@ -812,17 +806,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26930/26930_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26930/26930_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26930/26930_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26301/26301_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26301/26301_2_650.jpg</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальный комплект из прозрачной черной сеточки в сочетании с эластичным непрозрачным материалом и золотой фурнитурой сделают Ваш образ более загадочным и интригующим. В таком белье у Вас есть все шансы свести мужчину с ума!Эротичный комплект российской фирмы DEVIL &amp; ANGEL обладает великолепным качеством и может быть отличным подарком, та</t>
+          <t xml:space="preserve">Отличительные особенности этой силиконовой водонепроницаемой секс-игрушки  анатомическая форма и встроенная в тельце вибропуля. Именно они делают ощущения от проникновения стимулятора в попку такими захватывающими. Наплывы на тельце подарят чувственный массаж простаты, в то время как четырехскоростная вибрация, регулировать которую можно с пульта, избавит от любой болезненности. .Стимулятор простаты и ануса Men's Pleasure Wand.  Стимулятор простаты и ануса Men's Pleasure Wand. Модель: docjohn-0906-01-3. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: красный. Материал: PVC пластик. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: DOC JOHNSON. </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -837,7 +831,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>100% полиэстер</t>
+          <t>PVC пластик</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
@@ -854,15 +848,25 @@
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>14.5</v>
+      </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
+      <c r="AF3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2.5</v>
+      </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -875,7 +879,7 @@
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>лиф, юбочка, митенки</t>
+          <t>пробка,пульт</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -895,38 +899,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DEVIL ANGEL</t>
+          <t>DOC JOHNSON</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Эротичный комплект из трех предметов M</t>
+          <t>Насадка-реалистик к трусикам системы</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id-26927-1299</t>
+          <t>id-710-1299</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -935,22 +939,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Насадка-реалистик к трусикам системы Vac-U-Lock</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26927/26927_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26927/26927_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26927/26927_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/710/710_710_650.jpg</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальный комплект из прозрачной черной сеточки в сочетании с эластичным непрозрачным материалом и золотой фурнитурой сделают Ваш образ более загадочным и интригующим. В таком белье у Вас есть все шансы свести мужчину с ума!Эротичный комплект российской фирмы DEVIL &amp; ANGEL обладает великолепным качеством и может быть отличным подарком, так как идет в стильной подарочной черной коробке с золотой надписью. Эротичный комплект из трех предметов M.  Эротичный комплект из трех предметов M. Модель: devil-7097mb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: DEVIL ANGEL. </t>
+          <t xml:space="preserve">Анальный фаллоимитатор, совместимый с системой Harness. Имеет рельефную поверхность, значительно усиливающую ощущения при стимуляции. Позволяет испытать яркий анал</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -963,11 +967,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>100% полиэстер</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>лиф, юбочка, митенки</t>
+          <t xml:space="preserve"> диаметр 3-4 см</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1023,38 +1023,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DEVIL ANGEL</t>
+          <t>DOC JOHNSON</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Эротичный комплект из трех предметов</t>
+          <t>Насадка-гигант для страпон-трусиков</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-26926-1299</t>
+          <t>id-713-1299</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1063,22 +1063,22 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Насадка-гигант для страпон-трусиков Realistic Hung - Vanilla</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26926/26926_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26926/26926_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26926/26926_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/713/713_713_650.jpg</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальный комплект из прозрачной черной сеточки в сочетании с эластичным непрозрачным материалом и золотой фурнитурой сделают Ваш образ более загадочным и интригующим. В таком белье у Вас есть все шансы свести мужчину с ума!Эротичный комплект российской фирмы DEVIL &amp; ANGEL обладает великолепным качеством и может быть отличным подарком, так как идет в стильной подарочной черной коробке с золотой надписью. Эротичный комплект из трех предметов XSS.  Эротичный комплект из трех предметов XSS. Модель: devil-7097xssb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: DEVIL ANGEL. </t>
+          <t xml:space="preserve">Невероятно большая и невероятно реалистичная насадка! Особое внимание к деталям выделяют эту насадку среди остальных!Невероятно подробное выделение каждой линии,выделенные венки ,цветовая гамма подобрана до мельчайших подробностей!.Насадка-гигант для страпон-трусиков Realistic Hung - Vanilla.  Насадка-гигант для страпон-трусиков Realistic Hung - Vanilla. Модель: docjohn-1015-27-bx. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Гиганты и фистинг. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: телесный. ароматизированный ПВХ с добавлением антибактериальной формулы Sil-A-GelБренд: DOC JOHNSON. </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1091,11 +1091,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>100% полиэстер</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
@@ -1131,7 +1127,7 @@
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>лиф, юбочка, митенки</t>
+          <t xml:space="preserve"> диаметр 7 см</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1151,7 +1147,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1162,38 +1158,46 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Вагина с эффектом женской эякуляции</t>
+          <t>Коричневый фаллос-насадка для страпона</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-17447-1299</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>id-11647-1299</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>99999</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>насадка, порошок для бережного хранения насадки</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17447/17447_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17447/17447_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/11647/11647_11647_650.jpg</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изготовлена из высококачественного супер эластичного материала, имеет анатомическую форму и внутренний рельефВаши влажные и самые смелые фантазии теперь в ваших руках с эта ультра-реалистичная вагина обладает эффектом сквиртинга Женская эякуляция! Изготовлен из невероятно реалистичного материала ULTRASKYN , шприц и жидкость в комплекте. Вагина с эффектом женской эякуляции Squirting Pussy.  Вагина с эффектом женской эякуляции Squirting Pussy. Модель: docjohn-0683-50. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный. Материал: Ultraskin (вторая кожа). Батареек нет в комплекте. Бренд: DOC JOHNSON. </t>
+          <t xml:space="preserve">Модель изготовлена из материала UR3 с применением антибактериальной формулы Sil-A-Gel, которая действует по принципу ионов серебра, предотвращая размножение бактерий.Материал не содержит фталатов и является абсолютно безопасным для здоровья. Имеет приятный запах, не портится со временем и не становится липким. Требуется немного дополнительного ухода, но это того стоит.Игрушку необходимо мыть до и после каждого использования. Для чистки дост</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1211,11 +1215,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Ultraskin (вторая кожа)</t>
-        </is>
-      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
@@ -1228,21 +1228,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W6" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7.425</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>14</v>
-      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
@@ -1261,7 +1251,7 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>вагина, шприц, смазка, порошок для бережного хранения мастурбатора</t>
+          <t xml:space="preserve"> длина до мошонки 16 см, диаметр 4,1 см</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1281,7 +1271,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1292,38 +1282,46 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Стимулятор простаты и ануса Men's</t>
+          <t>Супер реалистичный вибратор-насадка</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-26301-1299</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>id-12916-1299</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
         <v>99999</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>вибратор, мешочек для хранения игрушки</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26301/26301_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26301/26301_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12916/12916_12916_650.jpg</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Отличительные особенности этой силиконовой водонепроницаемой секс-игрушки  анатомическая форма и встроенная в тельце вибропуля. Именно они делают ощущения от проникновения стимулятора в попку такими захватывающими. Наплывы на тельце подарят чувственный массаж простаты, в то время как четырехскоростная вибрация, регулировать которую можно с пульта, избавит от любой болезненности. .Стимулятор простаты и ануса Men's Pleasure Wand.  Стимулятор простаты и ануса Men's Pleasure Wand. Модель: docjohn-0906-01-3. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: красный. Материал: PVC пластик. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: DOC JOHNSON. </t>
+          <t xml:space="preserve">Вибратор из специально разработанного ультра реалистичного материала UR3 поражает своей мягкостью и абсолютной схожестью по ощущению с кожей человека. Можно использовать как насадку к системе  Vac-U-Lock, а так же как фаллоимитатор на присоске, также прикреплять к универсальным трусикам Харнесс. Супер реалистичный вибратор-насадка Ultra Realistic 8'' (вторая кожа).  Супер реалистичный вибратор-насадка Ultra Realistic 8'' (вторая кожа). Модель: docjohn-1160-02-bx. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Супер реалистичные. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: телесный. UR3 (вторая кожа)Бренд: DOC JOHNSON. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1341,11 +1339,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>PVC пластик</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
@@ -1360,25 +1354,15 @@
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1391,7 +1375,7 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>пробка,пульт</t>
+          <t xml:space="preserve"> длина до мошонки 19 см, диаметр 4,2-4,5 см</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1411,7 +1395,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1427,12 +1411,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Насадка-реалистик к трусикам системы</t>
+          <t>Большая анальная пробка Anal Stretcher</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-710-1299</t>
+          <t>id-18021-1299</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1451,17 +1435,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Насадка-реалистик к трусикам системы Vac-U-Lock</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/710/710_710_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18021/18021_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18021/18021_2_650.jpg</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальный фаллоимитатор, совместимый с системой Harness. Имеет рельефную поверхность, значительно усиливающую ощущения при стимуляции. Позволяет испытать яркий анальный оргазм. Одевается на тело с помощью специальных трусиков. Насадка-реалистик к трусикам системы Vac-U-Lock.  Насадка-реалистик к трусикам системы Vac-U-Lock. Модель: docjohn-1015-24-bx. Секс-игрушки. Страпоны и фаллопротезы &gt; Трусики и насадки. Страпоны и фаллопротезы &gt; Без вибрации. Цвет: телесный. ароматизированный ПВХ с добавлением антибактериальной формулы Sil-A-GelБренд: DOC JOHNSON. </t>
+          <t xml:space="preserve">Эта конусообразная пробка из упругого материала идеально подходит для новичков и опытных пользователей.Совместим с аксессуарами системы Vac-U-Lock. Большая анальная пробка Anal Stretcher 6 (совместима со страпонами Vac-U-Lock).  Большая анальная пробка Anal Stretcher 6 (совместима со страпонами Vac-U-Lock). Модель: docjohn-3202-05-bx. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Страпоны и фаллопротезы &gt; Трусики и насадки. Анальные стимуляторы и пробки &gt; Гиганты. Цвет: черный. Материал: ПВХ. Батареек нет в комплекте. Бренд: DOC JOHNSON. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1479,7 +1463,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>ПВХ</t>
+        </is>
+      </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
@@ -1515,7 +1503,7 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> диаметр 3-4 см</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -1551,41 +1539,33 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Насадка-гигант для страпон-трусиков</t>
+          <t>Кисть для фистинга Bitch Fist</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-713-1299</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-4098-1299</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
         <v>99999</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Насадка-гигант для страпон-трусиков Realistic Hung - Vanilla</t>
+          <t>Кисть для фистинга Bitch Fist</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/713/713_713_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/4098/4098_4098_650.jpg</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Невероятно большая и невероятно реалистичная насадка! Особое внимание к деталям выделяют эту насадку среди остальных!Невероятно подробное выделение каждой линии,выделенные венки ,цветовая гамма подобрана до мельчайших подробностей!.Насадка-гигант для страпон-трусиков Realistic Hung - Vanilla.  Насадка-гигант для страпон-трусиков Realistic Hung - Vanilla. Модель: docjohn-1015-27-bx. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Гиганты и фистинг. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: телесный. ароматизированный ПВХ с добавлением антибактериальной формулы Sil-A-GelБренд: DOC JOHNSON. </t>
+          <t xml:space="preserve">Кулак красотки Belladonna Bitch Fist  это уникальная интимная игрушка в виде руки порнозвезды Беладонны (100% копия), от компании Doc Johnson. Она разработана для вагинального и анального фистинга. Подойдет для использования, как женщинами, так и мужчинами.Изготовлена модель из высококачественного ПВХ материала, который является полностью безопасным для тела, не имеет запаха, не вызывает аллергических реакций и содержит специальную антибактериальную формулу Sil-a-Gel.Для более глубоких проникновений и мягких скольжений, рекомендуется использовать игрушку в сочетании со смазками и лубрикантами.После использования, изделие достаточно вымыть в теплой воде и вытереть насухо. Кисть для фистинга Bitch Fist.  Кисть для фистинга Bitch Fist. Модель: docjohn-5079-03-cd. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Гиганты и фистинг. Цвет: телесный. ароматизированный ПВХ с добавлением антибактериальной формулы Sil-A-GelБренд: DOC JOHNSON. </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1618,9 +1598,15 @@
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+      <c r="Y9" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>28</v>
+      </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
@@ -1639,7 +1625,7 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> диаметр 7 см</t>
+          <t xml:space="preserve"> диаметр 5-7,6 см</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -1659,7 +1645,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1670,46 +1656,38 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Коричневый фаллос-насадка для страпона</t>
+          <t>Нагреватель для мастурбаторов Main</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-11647-1299</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-20261-1299</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>99999</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>насадка, порошок для бережного хранения насадки</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11647/11647_11647_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20261/20261_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20261/20261_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20261/20261_3_650.jpg</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Модель изготовлена из материала UR3 с применением антибактериальной формулы Sil-A-Gel, которая действует по принципу ионов серебра, предотвращая размножение бактерий.Материал не содержит фталатов и является абсолютно безопасным для здоровья. Имеет приятный запах, не портится со временем и не становится липким. Требуется немного дополнительного ухода, но это того стоит.Игрушку необходимо мыть до и после каждого использования. Для чистки достаточно использовать воду с жидким антибактериальным мылом или качественное средство для ухода за игрушками.Эта насадка-реалистик может использоваться с любыми системами страпонов: с типом крепления Vac-U-Lock и O-ring. Также в комплекте идет уплотнительное кольцо, которое можно использовать как для придания дополнительной устойчивости, так и для обеспечения совместимости с различными аксессуарами с другими типами крепления. Коричневый фаллос-насадка для страпона из UR3 6'' Cock.  Коричневый фаллос-насадка для страпона из UR3 6'' Cock. Модель: docjohn-1015-32. Секс-игрушки. Страпоны и фаллопротезы &gt; Трусики и насадки. Страпоны и фаллопротезы &gt; Без вибрации. Цвет: коричневый. UR3 (вторая кожа)Бренд: DOC JOHNSON. </t>
+          <t xml:space="preserve">Прибор Main Squeeze  Warming удобно подключается к любому USB-устройству или порту зарядного устройства, чтобы включить его, и полностью нагревает материал ULTRASKYN  до 37 C всего за 8 минут. Нагреватель для мастурбаторов Main Squeeze Warming Accessory.  Нагреватель для мастурбаторов Main Squeeze Warming Accessory. Модель: docjohnson-5204-01. Секс-игрушки. Мастурбаторы и вагины &gt; Нагреватели, сушилки. Цвет: черный. Материал: пластик. Батареек нет в комплекте. Бренд: DOC JOHNSON. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1727,7 +1705,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>пластик</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
@@ -1742,15 +1724,25 @@
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+      <c r="Y10" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>18.5</v>
+      </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
+      <c r="AF10" t="n">
+        <v>2.035</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1.85</v>
+      </c>
       <c r="AH10" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1763,7 +1755,7 @@
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> длина до мошонки 16 см, диаметр 4,1 см</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
@@ -1783,57 +1775,49 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DOC JOHNSON</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Супер реалистичный вибратор-насадка</t>
+          <t>Вкусовое массажное масло DONNA Kissable</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-12916-1299</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-14379-1299</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>99999</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>вибратор, мешочек для хранения игрушки</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12916/12916_12916_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14379/14379_1_650.jpg</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибратор из специально разработанного ультра реалистичного материала UR3 поражает своей мягкостью и абсолютной схожестью по ощущению с кожей человека. Можно использовать как насадку к системе  Vac-U-Lock, а так же как фаллоимитатор на присоске, также прикреплять к универсальным трусикам Харнесс. Супер реалистичный вибратор-насадка Ultra Realistic 8'' (вторая кожа).  Супер реалистичный вибратор-насадка Ultra Realistic 8'' (вторая кожа). Модель: docjohn-1160-02-bx. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Супер реалистичные. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: телесный. UR3 (вторая кожа)Бренд: DOC JOHNSON. </t>
+          <t xml:space="preserve">Вкусовое массажное масло с феромонами и ароматом Ванильный крем DONA Kissable Massage Oil Vanilla Buttercream. Эротический массаж с маслом - это изысканный десерт на двоих. Расслабляйтесь и наслаждайтесь моментом удовольствия. Сбалансированная натуральная масляная основа и комплекс витаминов - Е, А, С, D заботятся о нежной коже, делая её сияющей, ухоженной, гладкой и шелковистой. Нежирная и длительная формула - увлажняют и омолаживают кожу. Искусственно синтезированный человеческий феромон снимает внутреннее напряжение, улучшает настроение и провоцирует сексуальное возбуждение, усиливая взаимное влечение партнеров. Продемонстрируй свою силу любви чувственными поглаживаниями, растираниями, шлепками или соблазнительными поцелуями воздействуя на вкусовые рецепторы страсти. Ваниль - сделает любые ласки сладкими, вызывая эйфорию и рождая сексуальные фантазии. Загадочный мир эротики и сказочного удовольствия поманит Вас с собой в мир безудержных эмоций и океанов страстей.Подарите незабываемые впечатления своей второй половинке! Сделайте друг друга счастливей и здоровее!.Вкусовое массажное масло DONNA Kissable Massage Oil Vanilla Buttercream (110 мл).  Вкусовое массажное масло DONNA Kissable Massage Oil Vanilla Buttercream (110 мл). Модель: dona-40538. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1843,25 +1827,29 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr"/>
+          <t>110 мл</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>110 мл</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -1887,7 +1875,7 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> длина до мошонки 19 см, диаметр 4,2-4,5 см</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -1907,40 +1895,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DOC JOHNSON</t>
+          <t>DREAM LOVE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Большая анальная пробка Anal Stretcher</t>
+          <t>Вибро-яйцо с пультом управления</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-18021-1299</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-26974-1299</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>99999</v>
@@ -1952,32 +1932,32 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18021/18021_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18021/18021_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26974/26974_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26974/26974_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26974/26974_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26974/26974_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26974/26974_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26974/26974_6_650.jpg</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эта конусообразная пробка из упругого материала идеально подходит для новичков и опытных пользователей.Совместим с аксессуарами системы Vac-U-Lock. Большая анальная пробка Anal Stretcher 6 (совместима со страпонами Vac-U-Lock).  Большая анальная пробка Anal Stretcher 6 (совместима со страпонами Vac-U-Lock). Модель: docjohn-3202-05-bx. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Страпоны и фаллопротезы &gt; Трусики и насадки. Анальные стимуляторы и пробки &gt; Гиганты. Цвет: черный. Материал: ПВХ. Батареек нет в комплекте. Бренд: DOC JOHNSON. </t>
+          <t xml:space="preserve">WEARWATCH EGG - маленький и одновременно мощный вибромассажер в форме яйца с дистанционным управлением. Он подойдет как для внутренней, так и внешней стимуляции. Его можно погружать во влагалище или же использовать для стимуляции клитора или других эрогенных зон. Благодаря гладким контурам и обтекаемой форме вибратор хорошо подойдет и для длительного ношения. Особенностью игрушки является беспроводной пульт дистанционного управления в виде стильных часов WATCHME. С помощью запатентованной технологии часов WATCHME можно включить и выключить вибрацию, изменять режимы вибрации и менять интенсивность в каждом режиме. Все это позволит легко и незаметно контролировать удовольствие, не отвлекаясь от процесса, или же незаметно управлять игрушкой вне дома. Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением вибромассажер необходимо хорошо просушить. Желательно хранить отдельно от других силиконовых изделий. Использовать только с лубрикантом на водной основе. Вибро-яйцо с пультом управления WEARWATCH EGG (7 режимов).  Вибро-яйцо с пультом управления WEARWATCH EGG (7 режимов). Модель: dream-227551. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибро-яйца. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: синий, черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: DREAM LOVE. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>ПВХ</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -1994,15 +1974,25 @@
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
+      <c r="Y12" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>7</v>
+      </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
+      <c r="AF12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>3.5</v>
+      </c>
       <c r="AH12" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2015,7 +2005,7 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибро-яйцо, пульт-часы, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -2041,22 +2031,22 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DOC JOHNSON</t>
+          <t>DREAM LOVE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Кисть для фистинга Bitch Fist</t>
+          <t>Вибро-яйцо с пультом управления</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-4098-1299</t>
+          <t>id-26977-1299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -2067,35 +2057,39 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Кисть для фистинга Bitch Fist</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/4098/4098_4098_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26977/26977_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26977/26977_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26977/26977_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26977/26977_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26977/26977_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26977/26977_6_650.jpg</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кулак красотки Belladonna Bitch Fist  это уникальная интимная игрушка в виде руки порнозвезды Беладонны (100% копия), от компании Doc Johnson. Она разработана для вагинального и анального фистинга. Подойдет для использования, как женщинами, так и мужчинами.Изготовлена модель из высококачественного ПВХ материала, который является полностью безопасным для тела, не имеет запаха, не вызывает аллергических реакций и содержит специальную антибактериальную формулу Sil-a-Gel.Для более глубоких проникновений и мягких скольжений, рекомендуется использовать игрушку в сочетании со смазками и лубрикантами.После использования, изделие достаточно вымыть в теплой воде и вытереть насухо. Кисть для фистинга Bitch Fist.  Кисть для фистинга Bitch Fist. Модель: docjohn-5079-03-cd. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Гиганты и фистинг. Цвет: телесный. ароматизированный ПВХ с добавлением антибактериальной формулы Sil-A-GelБренд: DOC JOHNSON. </t>
+          <t xml:space="preserve">WEARWATCH EGG - маленький и одновременно мощный вибромассажер в форме яйца с дистанционным управлением. Он подойдет как для внутренней, так и внешней стимуляции. Его можно погружать во влагалище или же использовать для стимуляции клитора или других эрогенных зон. Благодаря гладким контурам и обтекаемой форме вибратор хорошо подойдет и для длительного ношения. Особенностью игрушки является беспроводной пульт дистанционного управления в виде стильных часов WATCHME. С помощью запатентованной технологии часов WATCHME можно включить и выключить вибрацию, изменять режимы вибрации и менять интенсивность в каждом режиме. Все это позволит легко и незаметно контролировать удовольствие, не отвлекаясь от процесса, или же незаметно управлять игрушкой вне дома. Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением вибромассажер необходимо хорошо просушить. Желательно хранить отдельно от других силиконовых изделий. Использовать только с лубрикантом на водной основе. Вибро-яйцо с пультом управления WEARWATCH EGG (7 режимов).  Вибро-яйцо с пультом управления WEARWATCH EGG (7 режимов). Модель: dream-227553. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибро-яйца. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: синий, бирюзовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: DREAM LOVE. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
@@ -2111,20 +2105,24 @@
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>30.8</v>
+        <v>7.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
+      <c r="AF13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>3.5</v>
+      </c>
       <c r="AH13" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2137,7 +2135,7 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> диаметр 5-7,6 см</t>
+          <t>вибро-яйцо, пульт-часы, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2157,28 +2155,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DOC JOHNSON</t>
+          <t>DREAM LOVE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Нагреватель для мастурбаторов Main</t>
+          <t>Вибро-яйцо с пультом управления</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-20261-1299</t>
+          <t>id-26975-1299</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -2194,32 +2192,32 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20261/20261_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20261/20261_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20261/20261_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26975/26975_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26975/26975_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26975/26975_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26975/26975_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26975/26975_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26975/26975_6_650.jpg</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прибор Main Squeeze  Warming удобно подключается к любому USB-устройству или порту зарядного устройства, чтобы включить его, и полностью нагревает материал ULTRASKYN  до 37 C всего за 8 минут. Нагреватель для мастурбаторов Main Squeeze Warming Accessory.  Нагреватель для мастурбаторов Main Squeeze Warming Accessory. Модель: docjohnson-5204-01. Секс-игрушки. Мастурбаторы и вагины &gt; Нагреватели, сушилки. Цвет: черный. Материал: пластик. Батареек нет в комплекте. Бренд: DOC JOHNSON. </t>
+          <t xml:space="preserve">WEARWATCH EGG - маленький и одновременно мощный вибромассажер в форме яйца с дистанционным управлением. Он подойдет как для внутренней, так и внешней стимуляции. Его можно погружать во влагалище или же использовать для стимуляции клитора или других эрогенных зон. Благодаря гладким контурам и обтекаемой форме вибратор хорошо подойдет и для длительного ношения. Особенностью игрушки является беспроводной пульт дистанционного управления в виде стильных часов WATCHME. С помощью запатентованной технологии часов WATCHME можно включить и выключить вибрацию, изменять режимы вибрации и менять интенсивность в каждом режиме. Все это позволит легко и незаметно контролировать удовольствие, не отвлекаясь от процесса, или же незаметно управлять игрушкой вне дома. Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением вибромассажер необходимо хорошо просушить. Желательно хранить отдельно от других силиконовых изделий. Использовать только с лубрикантом на водной основе. Вибро-яйцо с пультом управления WEARWATCH EGG (7 режимов).  Вибро-яйцо с пультом управления WEARWATCH EGG (7 режимов). Модель: dream-227555. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибро-яйца. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: ярко-розовый, черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: DREAM LOVE. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -2237,23 +2235,23 @@
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="n">
-        <v>20.35</v>
+        <v>7.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.5</v>
+        <v>7</v>
       </c>
       <c r="AA14" t="n">
-        <v>18.5</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="n">
-        <v>2.035</v>
+        <v>3.85</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
@@ -2267,7 +2265,7 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибро-яйцо, пульт-часы, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -2287,28 +2285,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>DREAM LOVE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Вкусовое массажное масло DONNA Kissable</t>
+          <t>Вибро-яйцо с пультом управления</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-14379-1299</t>
+          <t>id-26976-1299</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -2324,17 +2322,17 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/14379/14379_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26976/26976_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26976/26976_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26976/26976_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26976/26976_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26976/26976_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26976/26976_6_650.jpg</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вкусовое массажное масло с феромонами и ароматом Ванильный крем DONA Kissable Massage Oil Vanilla Buttercream. Эротический массаж с маслом - это изысканный десерт на двоих. Расслабляйтесь и наслаждайтесь моментом удовольствия. Сбалансированная натуральная масляная основа и комплекс витаминов - Е, А, С, D заботятся о нежной коже, делая её сияющей, ухоженной, гладкой и шелковистой. Нежирная и длительная формула - увлажняют и омолаживают кожу. Искусственно синтезированный человеческий феромон снимает внутреннее напряжение, улучшает настроение и провоцирует сексуальное возбуждение, усиливая взаимное влечение партнеров. Продемонстрируй свою силу любви чувственными поглаживаниями, растираниями, шлепками или соблазнительными поцелуями воздействуя на вкусовые рецепторы страсти. Ваниль - сделает любые ласки сладкими, вызывая эйфорию и рождая сексуальные фантазии. Загадочный мир эротики и сказочного удовольствия поманит Вас с собой в мир безудержных эмоций и океанов страстей.Подарите незабываемые впечатления своей второй половинке! Сделайте друг друга счастливей и здоровее!.Вкусовое массажное масло DONNA Kissable Massage Oil Vanilla Buttercream (110 мл).  Вкусовое массажное масло DONNA Kissable Massage Oil Vanilla Buttercream (110 мл). Модель: dona-40538. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">WEARWATCH EGG - маленький и одновременно мощный вибромассажер в форме яйца с дистанционным управлением. Он подойдет как для внутренней, так и внешней стимуляции. Его можно погружать во влагалище или же использовать для стимуляции клитора или других эрогенных зон. Благодаря гладким контурам и обтекаемой форме вибратор хорошо подойдет и для длительного ношения. Особенностью игрушки является беспроводной пульт дистанционного управления в виде стильных часов WATCHME. С помощью запатентованной технологии часов WATCHME можно включить и выключить вибрацию, изменять режимы вибрации и менять интенсивность в каждом режиме. Все это позволит легко и незаметно контролировать удовольствие, не отвлекаясь от процесса, или же незаметно управлять игрушкой вне дома. Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением вибромассажер необходимо хорошо просушить. Желательно хранить отдельно от других силиконовых изделий. Использовать только с лубрикантом на водной основе. Вибро-яйцо с пультом управления WEARWATCH EGG (7 режимов).  Вибро-яйцо с пультом управления WEARWATCH EGG (7 режимов). Модель: dream-227559. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибро-яйца. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: бирюзовый, черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: DREAM LOVE. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2347,34 +2345,44 @@
           <t>Экстра класс</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>110 мл</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>110 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
+      <c r="Y15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>7</v>
+      </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
+      <c r="AF15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>3.5</v>
+      </c>
       <c r="AH15" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2387,7 +2395,7 @@
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибро-яйцо, пульт-часы, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
@@ -2418,17 +2426,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Вибро-яйцо с пультом управления</t>
+          <t>Вибромассажер с пультом управления</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-26974-1299</t>
+          <t>id-26972-1299</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -2444,12 +2452,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26974/26974_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26974/26974_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26974/26974_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26974/26974_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26974/26974_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26974/26974_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26972/26972_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26972/26972_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26972/26972_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26972/26972_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26972/26972_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26972/26972_6_650.jpg</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">WEARWATCH EGG - маленький и одновременно мощный вибромассажер в форме яйца с дистанционным управлением. Он подойдет как для внутренней, так и внешней стимуляции. Его можно погружать во влагалище или же использовать для стимуляции клитора или других эрогенных зон. Благодаря гладким контурам и обтекаемой форме вибратор хорошо подойдет и для длительного ношения. Особенностью игрушки является беспроводной пульт дистанционного управления в виде стильных часов WATCHME. С помощью запатентованной технологии часов WATCHME можно включить и выключить вибрацию, изменять режимы вибрации и менять интенсивность в каждом режиме. Все это позволит легко и незаметно контролировать удовольствие, не отвлекаясь от процесса, или же незаметно управлять игрушкой вне дома. Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением вибромассажер необходимо хорошо просушить. Желательно хранить отдельно от других силиконовых изделий. Использовать только с лубрикантом на водной основе. Вибро-яйцо с пультом управления WEARWATCH EGG (7 режимов).  Вибро-яйцо с пультом управления WEARWATCH EGG (7 режимов). Модель: dream-227551. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибро-я</t>
+          <t xml:space="preserve">WEARWATCH DUAL - вибратор для пар, как для нее, так и для него. Его особая форма позволяет обоим партнерам наслаждаться эффектными вибрациями во время секса, он одновременно стимулирует клитор, точку G и пенис. Dual так же отлично подойдет соло-мастурбации. Игрушка имеет два мощных мотора, один из которых предназначен для стимуляции влагалища, второй для стимуляции клитора. Особенностью игрушки является беспроводной пульт дистанционного управления в виде стильных часов WATCHME. С помощью запатентованной технологии часов WATCHME можно включить и выключить вибрацию, изменять режимы вибрации и менять интенсивность в каждом режиме. Все это позволит легко контролировать удовольствие, не отвлекаясь от процесса. Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением вибромассажер необходимо хорошо просушить. Желательно хранить отдельно от других силиконовых изделий. Использовать только с лубрикантом на водной основе. Вибромассажер с пультом управления WEARWATCH DUAL PLEASURE (7 режимов).  Вибромассажер с пультом управления WEARWATCH DUAL PLEASURE (7 режимов). Модель: dream-227563. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: синий, черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: DREAM LOVE. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2484,27 +2492,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.52</v>
+      </c>
       <c r="Y16" t="n">
-        <v>7.7</v>
+        <v>9.35</v>
       </c>
       <c r="Z16" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2517,7 +2525,7 @@
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>вибро-яйцо, пульт-часы, зарядное USB-устройство</t>
+          <t>вибромассажер, пульт-часы, магнитное зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
@@ -2548,17 +2556,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Вибро-яйцо с пультом управления</t>
+          <t>Вибромассажер с пультом управления</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-26977-1299</t>
+          <t>id-26971-1299</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -2574,12 +2582,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26977/26977_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26977/26977_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26977/26977_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26977/26977_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26977/26977_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26977/26977_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26971/26971_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26971/26971_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26971/26971_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26971/26971_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26971/26971_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26971/26971_6_650.jpg</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">WEARWATCH EGG - маленький и одновременно мощный вибромассажер в форме яйца с дистанционным управлением. Он подойдет как для внутренней, так и внешней стимуляции. Его можно погружать во влагалище или же использовать для стимуляции клитора или других эрогенных зон. Благодаря гладким контурам и обтекаемой форме вибратор хорошо подойдет и для длительного ношения. Особенностью игрушки является беспроводной пульт дистанционного управления в виде стильных часов WATCHME. С помощью запатентованной технологии часов WATCHME можно включить и выключить вибрацию, изменять режимы вибрации и менять интенсивность в каждом режиме. Все это позволит легко и незаметно контролировать удовольствие, не отвлекаясь от процесса, или же незаметно управлять игрушкой вне дома. Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением вибромассажер необходимо хорошо просушить. Желательно хранить отдельно от других силиконовых изделий. Использовать только с лубрикантом на водной основе. Вибро-яйцо с пультом управления WEARWATCH EGG (7 режимов).  Вибро-яйцо с пультом управления WEARWATCH EGG (7 режимов). Модель: dream-227553. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибро-яйца. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: синий, бирюзовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: DREAM LOVE. </t>
+          <t xml:space="preserve">WEARWATCH DUAL - вибратор для пар, как для нее, так и для него. Его особая форма позволяет обоим партнерам наслаждаться эффектными вибрациями во время секса, он одновременно стимулирует клитор, точку G и пенис. Dual так же отлично подойдет соло-мастурбации. Игрушка имеет два мощных мотора, один из которых предназначен для стимуляции влагалища, второй для стимуляции клитора. Особенностью игрушки является беспроводной пульт дистанционного управления в виде стильных часов WATCHME. С помощью запатентованной технологии часов WATCHME можно включить и выключить вибрацию, изменять режимы вибрации и менять интенсивность в каждом режиме. Все это позволит легко контролировать удовольствие, не отвлекаясь от процесса. Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением вибромассажер необходимо хорошо просушить. Желательно хранить отдельно от других силиконовых изделий. Использовать только с лубрикантом на водной основе. Вибромассажер с пультом управления WEARWATCH DUAL PLEASURE (7 режимов).  Вибромассажер с пультом управления WEARWATCH DUAL PLEASURE (7 режимов). Модель: dream-227567. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: бирюзовый, черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: DREAM LOVE. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2614,27 +2622,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
+      <c r="W17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3.52</v>
+      </c>
       <c r="Y17" t="n">
-        <v>7.7</v>
+        <v>9.35</v>
       </c>
       <c r="Z17" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2647,7 +2655,7 @@
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>вибро-яйцо, пульт-часы, зарядное USB-устройство</t>
+          <t>вибромассажер, пульт-часы, магнитное зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
@@ -2678,17 +2686,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Вибро-яйцо с пультом управления</t>
+          <t>Вибромассажер с пультом управления</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-26975-1299</t>
+          <t>id-26973-1299</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2704,12 +2712,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26975/26975_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26975/26975_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26975/26975_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26975/26975_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26975/26975_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26975/26975_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26973/26973_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26973/26973_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26973/26973_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26973/26973_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26973/26973_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26973/26973_6_650.jpg</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">WEARWATCH EGG - маленький и одновременно мощный вибромассажер в форме яйца с дистанционным управлением. Он подойдет как для внутренней, так и внешней стимуляции. Его можно погружать во влагалище или же использовать для стимуляции клитора или других эрогенных зон. Благодаря гладким контурам и обтекаемой форме вибратор хорошо подойдет и для длительного ношения. Особенностью игрушки является беспроводной пульт дистанционного управления в виде стильных часов WATCHME. С помощью запатентованной технологии часов WATCHME можно включить и выключить вибрацию, изменять режимы вибрации и менять интенсивность в каждом режиме. Все это позволит легко и незаметно контролировать удовольствие, не отвлекаясь от процесса, или же незаметно управлять игрушкой вне дома. Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением вибромассажер необходимо хорошо просушить. Желательно хранить отдельно от других силиконовых изделий. Использовать только с лубрикантом на водной основе. Вибро-яйцо с пультом управления WEARWATCH EGG (7 режимов).  Вибро-яйцо с пультом управления WEARWATCH EGG (7 режимов). Модель: dream-227555. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибро-яйца. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: ярко-розовый, черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: DREAM LOVE. </t>
+          <t xml:space="preserve">WEARWATCH DUAL - вибратор для пар, как для нее, так и для него. Его особая форма позволяет обоим партнерам наслаждаться эффектными вибрациями во время секса, он одновременно стимулирует клитор, точку G и пенис. Dual так же отлично подойдет соло-мастурбации. Игрушка имеет два мощных мотора, один из которых предназначен для стимуляции влагалища, второй для стимуляции клитора. Особенностью игрушки является беспроводной пульт дистанционного управления в виде стильных часов WATCHME. С помощью запатентованной технологии часов WATCHME можно включить и выключить вибрацию, изменять режимы вибрации и менять интенсивность в каждом режиме. Все это позволит легко контролировать удовольствие, не отвлекаясь от процесса. Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением вибромассажер необходимо хорошо просушить. Желательно хранить отдельно от других силиконовых изделий. Использовать только с лубрикантом на водной основе. Вибромассажер с пультом управления WEARWATCH DUAL PLEASURE (7 режимов).  Вибромассажер с пультом управления WEARWATCH DUAL PLEASURE (7 режимов). Модель: dream-227592. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: ярко-розовый, черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: DREAM LOVE. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2744,27 +2752,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3.52</v>
+      </c>
       <c r="Y18" t="n">
-        <v>7.7</v>
+        <v>9.35</v>
       </c>
       <c r="Z18" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2777,7 +2785,7 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>вибро-яйцо, пульт-часы, зарядное USB-устройство</t>
+          <t>вибромассажер, пульт-часы, магнитное зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
@@ -2797,32 +2805,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DREAM LOVE</t>
+          <t>EASY TOYS</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Вибро-яйцо с пультом управления</t>
+          <t>Черное виниловое покрывало Easy Toys</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-26976-1299</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+          <t>id-26989-1299</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
         <v>99999</v>
@@ -2834,32 +2850,32 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26976/26976_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26976/26976_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26976/26976_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26976/26976_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26976/26976_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26976/26976_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26989/26989_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26989/26989_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26989/26989_3_650.jpg</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">WEARWATCH EGG - маленький и одновременно мощный вибромассажер в форме яйца с дистанционным управлением. Он подойдет как для внутренней, так и внешней стимуляции. Его можно погружать во влагалище или же использовать для стимуляции клитора или других эрогенных зон. Благодаря гладким контурам и обтекаемой форме вибратор хорошо подойдет и для длительного ношения. Особенностью игрушки является беспроводной пульт дистанционного управления в виде стильных часов WATCHME. С помощью запатентованной технологии часов WATCHME можно включить и выключить вибрацию, изменять режимы вибрации и менять интенсивность в каждом режиме. Все это позволит легко и незаметно контролировать удовольствие, не отвлекаясь от процесса, или же незаметно управлять игрушкой вне дома. Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением вибромассажер необходимо хорошо просушить. Желательно хранить отдельно от других силиконовых изделий. Использовать только с лубрикантом на водной основе. Вибро-яйцо с пультом управления WEARWATCH EGG (7 режимов).  Вибро-яйцо с пультом управления WEARWATCH EGG (7 режимов). Модель: dream-227559. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибро-яйца. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: бирюзовый, черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: DREAM LOVE. </t>
+          <t xml:space="preserve">С помощью этой черной простыни защитите свою кровать, пол и мебель от смазок, лубрикантов, гелей, массажного масла и других жидкостей. Простыня Easy Toys на 100% водонепроницаема и подходит для кроватей с размером до 230 см. Положите ее на кровать, чтобы защитить простыни и другое постельное белье, на пол или в любое другое место, которое вы хотите оставить в чистоте и порядке, несмотря на все влажное удовольствие, которым хотите насладиться сполна! Наслаждайтесь массажем тела без последующих хлопот, связанных с удалением масляных пятен. Черное виниловое покрывало Easy Toys.  Черное виниловое покрывало Easy Toys. Модель: easytoys-700b. БДСМ. БДСМ товары и фетиш &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: ПВХ. Батареек нет в комплекте. Бренд: EASY TOYS. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Нидерланды</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>ПВХ</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -2876,25 +2892,15 @@
       </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>7</v>
-      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2907,7 +2913,7 @@
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>вибро-яйцо, пульт-часы, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -2927,28 +2933,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DREAM LOVE</t>
+          <t>EDS WHOLESALE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Вибромассажер с пультом управления</t>
+          <t>Анальная пробка размера XXL</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-26972-1299</t>
+          <t>id-27776-1299</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2964,32 +2970,32 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26972/26972_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26972/26972_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26972/26972_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26972/26972_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26972/26972_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26972/26972_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27776/27776_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27776/27776_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27776/27776_3_650.jpg</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">WEARWATCH DUAL - вибратор для пар, как для нее, так и для него. Его особая форма позволяет обоим партнерам наслаждаться эффектными вибрациями во время секса, он одновременно стимулирует клитор, точку G и пенис. Dual так же отлично подойдет соло-мастурбации. Игрушка имеет два мощных мотора, один из которых предназначен для стимуляции влагалища, второй для стимуляции клитора. Особенностью игрушки является беспроводной пульт дистанционного управления в виде стильных часов WATCHME. С помощью запатентованной технологии часов WATCHME можно включить и выключить вибрацию, изменять режимы вибрации и менять интенсивность в каждом режиме. Все это позволит легко контролировать удовольствие, не отвлекаясь от процесса. Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением вибромассажер необходимо хорошо просушить. Желательно хранить отдельно от других силиконовых изделий. Использовать только с лубрикантом на водной основе. Вибромассажер с пультом управления WEARWATCH DUAL PLEASURE (7 режимов).  Вибромассажер с пультом управления WEARWATCH DUAL PLEASURE (7 режимов). Модель: dream-227563. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: синий, черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: DREAM LOVE. </t>
+          <t xml:space="preserve">10 Pounder Dildo  универсальная пробка размера XXL, предназначенная для фистинга. Зауженная головка и увеличивающийся размер обеспечивает более комфортное проникновение. За счет натянутости стенок ануса дилдо такого размера все нервные окончания реагируют на стимуляцию гораздо ярче. Дополнительно к этому, у мужчин осуществляется массаж простаты, а у женщин возможно, воздействие на точку G через стенку прямой кишки.ПрименениеПробка используется после проведения всех необходимых подготовительных процедур.Для комфортности введения и получения максимально приятных ощущений рекомендуется использовать большое количество смазки на водной основе.ХранениеОчищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением пробку необходимо хорошо просушить. Анальная пробка размера XXL.  Анальная пробка размера XXL. Модель: edс-buttr004. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Гиганты. Цвет: черный. Материал: ПВХ. Батареек нет в комплекте. Бренд: EDS WHOLESALE. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Нидерланды</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>ПВХ</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -3004,27 +3010,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W20" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X20" t="n">
-        <v>3.52</v>
-      </c>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
       <c r="Y20" t="n">
-        <v>9.35</v>
+        <v>28.16</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.5</v>
+        <v>25.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>8.5</v>
+        <v>25.6</v>
       </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
+      <c r="AF20" t="n">
+        <v>6.765</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>6.15</v>
+      </c>
       <c r="AH20" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3037,7 +3043,7 @@
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>вибромассажер, пульт-часы, магнитное зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
@@ -3057,28 +3063,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DREAM LOVE</t>
+          <t>EGZO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Вибромассажер с пультом управления</t>
+          <t>Анальный лубрикант на водной основе с</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-26971-1299</t>
+          <t>id-20271-1299</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -3094,61 +3100,51 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26971/26971_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26971/26971_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26971/26971_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26971/26971_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26971/26971_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26971/26971_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20271/20271_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20271/20271_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20271/20271_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20271/20271_4_650.jpg</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">WEARWATCH DUAL - вибратор для пар, как для нее, так и для него. Его особая форма позволяет обоим партнерам наслаждаться эффектными вибрациями во время секса, он одновременно стимулирует клитор, точку G и пенис. Dual так же отлично подойдет соло-мастурбации. Игрушка имеет два мощных мотора, один из которых предназначен для стимуляции влагалища, второй для стимуляции клитора. Особенностью игрушки является беспроводной пульт дистанционного управления в виде стильных часов WATCHME. С помощью запатентованной технологии часов WATCHME можно включить и выключить вибрацию, изменять режимы вибрации и менять интенсивность в каждом режиме. Все это позволит легко контролировать удовольствие, не отвлекаясь от процесса. Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением вибромассажер необходимо хорошо просушить. Желательно хранить отдельно от других силиконовых изделий. Использовать только с лубрикантом на водной основе. Вибромассажер с пультом управления WEARWATCH DUAL PLEASURE (7 режимов).  Вибромассажер с пультом управления WEARWATCH DUAL PLEASURE (7 режимов). Модель: dream-227567. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: бирюзовый, черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: DREAM LOVE. </t>
+          <t xml:space="preserve">Анальный лубрикант с ароматом банана Egzo Hey на водной основе, поэтому на 100% совместим с презервативами и секс-игрушками из разных материалов. Легко смывается водой, не пачкает белье и одежду. Анальный лубрикант на водной основе с ароматом банана Egzo Hey (50 мл).  Анальный лубрикант на водной основе с ароматом банана Egzo Hey (50 мл). Модель: egzo-10009. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr"/>
+          <t>50 мл</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X21" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>8.5</v>
-      </c>
+          <t>50 мл</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
@@ -3167,7 +3163,7 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>вибромассажер, пульт-часы, магнитное зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -3187,28 +3183,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DREAM LOVE</t>
+          <t>EGZO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Вибромассажер с пультом управления</t>
+          <t>Анальный лубрикант на водной основе с</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-26973-1299</t>
+          <t>id-20270-1299</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -3224,61 +3220,51 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26973/26973_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26973/26973_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26973/26973_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26973/26973_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26973/26973_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26973/26973_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20270/20270_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20270/20270_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20270/20270_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20270/20270_4_650.jpg</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">WEARWATCH DUAL - вибратор для пар, как для нее, так и для него. Его особая форма позволяет обоим партнерам наслаждаться эффектными вибрациями во время секса, он одновременно стимулирует клитор, точку G и пенис. Dual так же отлично подойдет соло-мастурбации. Игрушка имеет два мощных мотора, один из которых предназначен для стимуляции влагалища, второй для стимуляции клитора. Особенностью игрушки является беспроводной пульт дистанционного управления в виде стильных часов WATCHME. С помощью запатентованной технологии часов WATCHME можно включить и выключить вибрацию, изменять режимы вибрации и менять интенсивность в каждом режиме. Все это позволит легко контролировать удовольствие, не отвлекаясь от процесса. Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением вибромассажер необходимо хорошо просушить. Желательно хранить отдельно от других силиконовых изделий. Использовать только с лубрикантом на водной основе. Вибромассажер с пультом управления WEARWATCH DUAL PLEASURE (7 режимов).  Вибромассажер с пультом управления WEARWATCH DUAL PLEASURE (7 режимов). Модель: dream-227592. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: ярко-розовый, черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: DREAM LOVE. </t>
+          <t xml:space="preserve">Анальный лубрикант с ароматом банана Egzo Hey на водной основе, поэтому на 100% совместим с презервативами и секс-игрушками из разных материалов. Легко смывается водой, не пачкает белье и одежду. Анальный лубрикант на водной основе с ароматом банана Egzo Hey (100 мл).  Анальный лубрикант на водной основе с ароматом банана Egzo Hey (100 мл). Модель: egzo-10016. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr"/>
+          <t>100 мл</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X22" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>8.5</v>
-      </c>
+          <t>100 мл</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
@@ -3297,7 +3283,7 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>вибромассажер, пульт-часы, магнитное зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
@@ -3317,40 +3303,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>EASY TOYS</t>
+          <t>EGZO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Черное виниловое покрывало Easy Toys</t>
+          <t>Охлаждающий лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-26989-1299</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-20277-1299</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>99999</v>
@@ -3362,17 +3340,17 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26989/26989_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26989/26989_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26989/26989_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20277/20277_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20277/20277_2_650.jpg</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">С помощью этой черной простыни защитите свою кровать, пол и мебель от смазок, лубрикантов, гелей, массажного масла и других жидкостей. Простыня Easy Toys на 100% водонепроницаема и подходит для кроватей с размером до 230 см. Положите ее на кровать, чтобы защитить простыни и другое постельное белье, на пол или в любое другое место, которое вы хотите оставить в чистоте и порядке, несмотря на все влажное удовольствие, которым хотите насладиться сполна! Наслаждайтесь массажем тела без последующих хлопот, связанных с удалением масляных пятен. Черное виниловое покрывало Easy Toys.  Черное виниловое покрывало Easy Toys. Модель: easytoys-700b. БДСМ. БДСМ товары и фетиш &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: ПВХ. Батареек нет в комплекте. Бренд: EASY TOYS. </t>
+          <t xml:space="preserve">Лубрикант Egzo GO немного охлаждает, поэтому оказывает пролонгирующее действие на мужчину, давая возможность в полной мере насладиться сексом.Egzo GO на водной основе, поэтому на 100% совместим с презервативами и секс-игрушками из разных материалов. Легко смывается водой, не пачкает белье и одежду. Охлаждающий лубрикант на водной основе с пролонгирующим действием Egzo GO (50 мл).  Охлаждающий лубрикант на водной основе с пролонгирующим действием Egzo GO (50 мл). Модель: egzo-10023. Косметика, препараты. Смазки, косметика &gt; Пролонгирующие смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3385,21 +3363,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>ПВХ</t>
-        </is>
-      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr"/>
+          <t>50 мл</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -3445,28 +3423,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>EDS WHOLESALE</t>
+          <t>EGZO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Анальная пробка размера XXL</t>
+          <t>Охлаждающий лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-27776-1299</t>
+          <t>id-20273-1299</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3482,17 +3460,17 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27776/27776_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27776/27776_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27776/27776_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20273/20273_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20273/20273_2_650.jpg</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 Pounder Dildo  универсальная пробка размера XXL, предназначенная для фистинга. Зауженная головка и увеличивающийся размер обеспечивает более комфортное проникновение. За счет натянутости стенок ануса дилдо такого размера все нервные окончания реагируют на стимуляцию гораздо ярче. Дополнительно к этому, у мужчин осуществляется массаж простаты, а у женщин возможно, воздействие на точку G через стенку прямой кишки.ПрименениеПробка используется после проведения всех необходимых подготовительных процедур.Для комфортности введения и получения максимально приятных ощущений рекомендуется использовать большое количество смазки на водной основе.ХранениеОчищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением пробку необходимо хорошо просушить. Анальная пробка размера XXL.  Анальная пробка размера XXL. Модель: edс-buttr004. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Гиганты. Цвет: черный. Материал: ПВХ. Батареек нет в комплекте. Бренд: EDS WHOLESALE. </t>
+          <t xml:space="preserve">Лубрикант Egzo GO немного охлаждает, поэтому оказывает пролонгирующее действие на мужчину, давая возможность в полной мере насладиться сексом.Egzo GO на водной основе, поэтому на 100% совместим с презервативами и секс-игрушками из разных материалов. Легко смывается водой, не пачкает белье и одежду. Охлаждающий лубрикант на водной основе с пролонгирующим действием Egzo GO (100 мл).  Охлаждающий лубрикант на водной основе с пролонгирующим действием Egzo GO (100 мл). Модель: egzo-10030. Косметика, препараты. Смазки, косметика &gt; Пролонгирующие смазки. Батареек нет в комплекте. Бренд: EGZO. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3505,44 +3483,34 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>ПВХ</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr"/>
+          <t>100 мл</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="n">
-        <v>28.16</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="n">
-        <v>6.765</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>6.15</v>
-      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3591,12 +3559,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Анальный лубрикант на водной основе с</t>
+          <t>Универсальный лубрикант на водной</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-20271-1299</t>
+          <t>id-20272-1299</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3612,17 +3580,17 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20271/20271_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20271/20271_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20271/20271_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20271/20271_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20272/20272_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20272/20272_2_650.jpg</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальный лубрикант с ароматом банана Egzo Hey на водной основе, поэтому на 100% совместим с презервативами и секс-игрушками из разных материалов. Легко смывается водой, не пачкает белье и одежду. Анальный лубрикант на водной основе с ароматом банана Egzo Hey (50 мл).  Анальный лубрикант на водной основе с ароматом банана Egzo Hey (50 мл). Модель: egzo-10009. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Универсальный лубрикант на водной основе Egzo WOW имитирует натуральную смазку, делая проникновение еще приятнее.Egzo WOW на водной основе, поэтому на 100% совместим с презервативами и секс-игрушками из разных материалов. Легко смывается водой, не пачкает белье и одежду. Универсальный лубрикант на водной основе Egzo WOW (100 мл).  Универсальный лубрикант на водной основе Egzo WOW (100 мл). Модель: egzo-10054. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3639,17 +3607,17 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -3711,12 +3679,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Анальный лубрикант на водной основе с</t>
+          <t>Согревающий лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-20270-1299</t>
+          <t>id-20276-1299</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3732,17 +3700,17 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20270/20270_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20270/20270_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20270/20270_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20270/20270_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20276/20276_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20276/20276_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20276/20276_3_650.jpg</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальный лубрикант с ароматом банана Egzo Hey на водной основе, поэтому на 100% совместим с презервативами и секс-игрушками из разных материалов. Легко смывается водой, не пачкает белье и одежду. Анальный лубрикант на водной основе с ароматом банана Egzo Hey (100 мл).  Анальный лубрикант на водной основе с ароматом банана Egzo Hey (100 мл). Модель: egzo-10016. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Лубрикант Egzo Yes оказывает легкое согревающее и возбуждающее действие, вызывая больший прилив крови к половым органам.Egzo Yes на водной основе, поэтому на 100% совместим с презервативами и секс-игрушками из разных материалов. Легко смывается водой, не пачкает белье и одежду. Согревающий лубрикант на водной основе Egzo Yes (50 мл).  Согревающий лубрикант на водной основе Egzo Yes (50 мл). Модель: egzo-10061. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3759,17 +3727,17 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -3815,7 +3783,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -3826,17 +3794,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Охлаждающий лубрикант на водной основе</t>
+          <t>Оральный гель на водной основе EGZO</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-20277-1299</t>
+          <t>id-25773-1299</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3852,17 +3820,17 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20277/20277_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20277/20277_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25773/25773_1_650.jpg</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лубрикант Egzo GO немного охлаждает, поэтому оказывает пролонгирующее действие на мужчину, давая возможность в полной мере насладиться сексом.Egzo GO на водной основе, поэтому на 100% совместим с презервативами и секс-игрушками из разных материалов. Легко смывается водой, не пачкает белье и одежду. Охлаждающий лубрикант на водной основе с пролонгирующим действием Egzo GO (50 мл).  Охлаждающий лубрикант на водной основе с пролонгирующим действием Egzo GO (50 мл). Модель: egzo-10023. Косметика, препараты. Смазки, косметика &gt; Пролонгирующие смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Оральный гель-смазка EGZO AROMA предназначен для повышения качества интимной жизни, обладает ярко выраженным вкусом и запахом яблока и корицы, добавит в прелюдию вкус и свежих ощущений.Гель увлажняет кожные покровы, создает продолжительное шелковистое скольжение, идеален для деликатного обращения с нежными поверхностями слизистой.Изготовлен на водной основе, легко смывается водой и не скатывается в процессе использования. Не оставляет следов на одежде. Удобный дозатор способствует быстрому, легкому нанесению.Можно совмещать со всеми видами латексных изделий. Подходит для использования в качестве классического лубриканта.Вкус яблока и корицы придаст приятную пикантную нотку оральным ласкам.Добавьте в Вашу прелюдию вкуса и новых ощущений.Не липнет к телу.Не пачкает одежду и постельное белье.Легко смывается с тела водой.Подходит для классического секса. Оральный гель на водной основе EGZO AROMA Apple Chinnamon ароматом яблока и корицы (50 мл.  Оральный гель на водной основе EGZO AROMA Apple Chinnamon ароматом яблока и корицы (50 мл. Модель: egzo-ar-appl. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3935,7 +3903,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -3946,17 +3914,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Охлаждающий лубрикант на водной основе</t>
+          <t>Оральный гель на водной основе EGZO</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-20273-1299</t>
+          <t>id-24529-1299</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3972,17 +3940,17 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20273/20273_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20273/20273_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24529/24529_1_650.jpg</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лубрикант Egzo GO немного охлаждает, поэтому оказывает пролонгирующее действие на мужчину, давая возможность в полной мере насладиться сексом.Egzo GO на водной основе, поэтому на 100% совместим с презервативами и секс-игрушками из разных материалов. Легко смывается водой, не пачкает белье и одежду. Охлаждающий лубрикант на водной основе с пролонгирующим действием Egzo GO (100 мл).  Охлаждающий лубрикант на водной основе с пролонгирующим действием Egzo GO (100 мл). Модель: egzo-10030. Косметика, препараты. Смазки, косметика &gt; Пролонгирующие смазки. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Оральный гель-смазка EGZO AROMA предназначен для повышения качества интимной жизни, обладает ярко выраженным вкусом и запахом банана, добавит в прелюдию вкус и свежих ощущений.Гель увлажняет кожные покровы, создает продолжительное шелковистое скольжение, идеален для деликатного обращения с нежными поверхностями слизистой.Изготовлен на водной основе, легко смывается водой и не скатывается в процессе использования. Не оставляет следов на одежде. Удобный дозатор способствует быстрому, легкому нанесению.Можно совмещать со всеми видами латексных изделий. Подходит для использования в качестве классического лубриканта.Банановый вкус придаст приятную пикантную нотку оральным ласкам.Добавьте в Вашу прелюдию вкуса и новых ощущений.Не пачкает одежду и постельное белье.Легко смывается с тела водой.Подходит для классического секса. Оральный гель на водной основе EGZO AROMA Banana с ароматом банана (50 мл).  Оральный гель на водной основе EGZO AROMA Banana с ароматом банана (50 мл). Модель: egzo-ar-bnn. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3999,17 +3967,17 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -4055,7 +4023,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -4071,12 +4039,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Универсальный лубрикант на водной</t>
+          <t>Увлажняющий гель на водной основе EGZO</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-20274-1299</t>
+          <t>id-24531-1299</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -4092,17 +4060,17 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20274/20274_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20274/20274_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24531/24531_1_650.jpg</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Универсальный лубрикант на водной основе Egzo WOW имитирует натуральную смазку, делая проникновение еще приятнее.Egzo WOW на водной основе, поэтому на 100% совместим с презервативами и секс-игрушками из разных материалов. Легко смывается водой, не пачкает белье и одежду. Универсальный лубрикант на водной основе Egzo WOW (50 мл).  Универсальный лубрикант на водной основе Egzo WOW (50 мл). Модель: egzo-10047. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Оральный гель-смазка EGZO AROMA предназначен для повышения качества интимной жизни, обладает ярко выраженным вкусом и запахом шоколада, добавит в прелюдию вкус и свежих ощущений.Гель увлажняет кожные покровы, создает продолжительное шелковистое скольжение, идеален для деликатного обращения с нежными поверхностями слизистой.Изготовлен на водной основе, легко смывается водой и не скатывается в процессе использования. Не оставляет следов на одежде. Удобный дозатор способствует быстрому, легкому нанесению.Можно совмещать со всеми видами латексных изделий. Подходит для использования в качестве классического лубриканта.Шоколадный вкус придаст приятную пикантную нотку оральным ласкам.Добавьте в Вашу прелюдию вкуса и новых ощущений.Не липнет к телу.Не пачкает одежду и постельное белье.Легко смывается с тела водой.Подходит для классического секса. Увлажняющий гель на водной основе EGZO AROMA Chocolate с ароматом шоколада (50 мл).  Увлажняющий гель на водной основе EGZO AROMA Chocolate с ароматом шоколада (50 мл). Модель: egzo-ar-cho. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4175,7 +4143,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -4191,12 +4159,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Универсальный лубрикант на водной</t>
+          <t>Оральный гель на водной основе EGZO</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-20272-1299</t>
+          <t>id-24530-1299</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -4212,17 +4180,17 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20272/20272_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20272/20272_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24530/24530_1_650.jpg</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Универсальный лубрикант на водной основе Egzo WOW имитирует натуральную смазку, делая проникновение еще приятнее.Egzo WOW на водной основе, поэтому на 100% совместим с презервативами и секс-игрушками из разных материалов. Легко смывается водой, не пачкает белье и одежду. Универсальный лубрикант на водной основе Egzo WOW (100 мл).  Универсальный лубрикант на водной основе Egzo WOW (100 мл). Модель: egzo-10054. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Оральный гель-смазка EGZO AROMA предназначен для повышения качества интимной жизни, обладает ярко выраженным вкусом и запахом мороженого, добавит в прелюдию вкус и свежих ощущений.Гель увлажняет кожные покровы, создает продолжительное шелковистое скольжение, идеален для деликатного обращения с нежными поверхностями слизистой.Изготовлен на водной основе, легко смывается водой и не скатывается в процессе использования. Не оставляет следов на одежде. Удобный дозатор способствует быстрому, легкому нанесению.Можно совмещать со всеми видами латексных изделий. Подходит для использования в качестве классического лубриканта.Вкус мороженого придаст приятную пикантную нотку оральным ласкам.Добавьте в Вашу прелюдию вкуса и новых ощущений.Не липнет к телу.Не пачкает одежду и постельное белье.Легко смывается с тела водой.Подходит для классического секса. Оральный гель на водной основе EGZO AROMA Ice Cream с ароматом мороженого (50 мл).  Оральный гель на водной основе EGZO AROMA Ice Cream с ароматом мороженого (50 мл). Модель: egzo-ar-ice. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -4239,17 +4207,17 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -4295,7 +4263,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -4311,12 +4279,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Согревающий лубрикант на водной основе</t>
+          <t>Оральный гель на водной основе EGZO</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-20276-1299</t>
+          <t>id-25772-1299</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -4332,17 +4300,17 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20276/20276_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20276/20276_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20276/20276_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25772/25772_1_650.jpg</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лубрикант Egzo Yes оказывает легкое согревающее и возбуждающее действие, вызывая больший прилив крови к половым органам.Egzo Yes на водной основе, поэтому на 100% совместим с презервативами и секс-игрушками из разных материалов. Легко смывается водой, не пачкает белье и одежду. Согревающий лубрикант на водной основе Egzo Yes (50 мл).  Согревающий лубрикант на водной основе Egzo Yes (50 мл). Модель: egzo-10061. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Оральный гель-смазка EGZO AROMA предназначен для повышения качества интимной жизни, обладает ярко выраженным вкусом и запахом манго, добавит в прелюдию вкус и свежих ощущений.Гель увлажняет кожные покровы, создает продолжительное шелковистое скольжение, идеален для деликатного обращения с нежными поверхностями слизистой.Изготовлен на водной основе, легко смывается водой и не скатывается в процессе использования. Не оставляет следов на одежде. Удобный дозатор способствует быстрому, легкому нанесению.Можно совмещать со всеми видами латексных изделий. Подходит для использования в качестве классического лубриканта.Вкус манго придаст приятную пикантную нотку оральным ласкам.Добавьте в Вашу прелюдию вкуса и новых ощущений.Не липнет к телу.Не пачкает одежду и постельное белье.Легко смывается с тела водой.Подходит для классического секса. Оральный гель на водной основе EGZO AROMA Mango ароматом манго (50 мл).  Оральный гель на водной основе EGZO AROMA Mango ароматом манго (50 мл). Модель: egzo-ar-mang-50. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4415,7 +4383,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -4431,12 +4399,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Согревающий лубрикант на водной основе</t>
+          <t>Оральный гель на водной основе EGZO</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-20275-1299</t>
+          <t>id-25771-1299</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -4452,17 +4420,17 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20275/20275_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20275/20275_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20275/20275_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25771/25771_1_650.jpg</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лубрикант Egzo Yes оказывает легкое согревающее и возбуждающее действие, вызывая больший прилив крови к половым органам.Egzo Yes на водной основе, поэтому на 100% совместим с презервативами и секс-игрушками из разных материалов. Легко смывается водой, не пачкает белье и одежду. Согревающий лубрикант на водной основе Egzo Yes (100 мл).  Согревающий лубрикант на водной основе Egzo Yes (100 мл). Модель: egzo-10078. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Оральный гель-смазка EGZO AROMA предназначен для повышения качества интимной жизни, обладает ярко выраженным вкусом и запахом красного апельсина, добавит в прелюдию вкус и свежих ощущений.Гель увлажняет кожные покровы, создает продолжительное шелковистое скольжение, идеален для деликатного обращения с нежными поверхностями слизистой.Изготовлен на водной основе, легко смывается водой и не скатывается в процессе использования. Не оставляет следов на одежде. Удобный дозатор способствует быстрому, легкому нанесению.Можно совмещать со всеми видами латексных изделий. Подходит для использования в качестве классического лубриканта.Вкус красного апельсина придаст приятную пикантную нотку оральным ласкам.Добавьте в Вашу прелюдию вкуса и новых ощущений.Не липнет к телу.Не пачкает одежду и постельное белье.Легко смывается с тела водой.Подходит для классического секса. Оральный гель на водной основе EGZO AROMA Red Orangeс ароматом красного апельсина (50 мл).  Оральный гель на водной основе EGZO AROMA Red Orangeс ароматом красного апельсина (50 мл). Модель: egzo-ar-oran-50. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4479,17 +4447,17 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -4535,7 +4503,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -4546,17 +4514,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Экстендер сферический EGZO SOFT CLASSIC</t>
+          <t>Оральный гель на водной основе EGZO</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-23585-1299</t>
+          <t>id-24528-1299</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -4572,17 +4540,17 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23585/23585_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24528/24528_1_650.jpg</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оригинальный интимный аксессуар для увеличения полового члена. Изготовлен из мягкого пластичного материала, дарящего приятные тактильные ощущения.Способ применения: распечатать презерватив, поместить в него изделие, надеть презерватив на половой член.До и после каждого использования рекомендуется обрабатывать изделие очищающим спреем с антимикробным эффектом или просто в теплой воде с жидким мылом. Экстендер сферический EGZO SOFT CLASSIC (вторая кожа).  Экстендер сферический EGZO SOFT CLASSIC (вторая кожа). Модель: egzo-5615. Секс-игрушки. Насадки и кольца &gt; Удлиняющие и расширяющие насадки. Увеличение пениса &gt; Удлиняющие насадки, пенисы для ношения. Цвет: телесный. Материал: Cyberskin (вторая кожа). Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Оральная смазка - лубрикант EGZO AROMA на водной основе - оральный гель со вкусом малины.Оральный гель-смазка EGZO AROMA предназначен для повышения качества интимной жизни, обладает ярко выраженным вкусом и запахом малины, добавит в прелюдию вкус и свежих ощущений.Гель увлажняет кожные покровы, создает продолжительное шелковистое скольжение, идеален для деликатного обращения с нежными поверхностями слизистой.Изготовлен на водной основе, легко смывается водой и не скатывается в процессе использования. Не оставляет следов на одежде. Удобный дозатор способствует быстрому, легкому нанесению.Можно совмещать со всеми видами латексных изделий. Подходит для использования в качестве классического лубриканта.Вкус малины придаст приятную пикантную нотку оральным ласкам.Добавьте в Вашу прелюдию вкуса и новых ощущений.Не липнет к телу.Не пачкает одежду и постельное белье.Легко смывается с тела водой.Подходит для классического секса. Оральный гель на водной основе EGZO AROMA Raspberry с ароматом малины (50 мл).  Оральный гель на водной основе EGZO AROMA Raspberry с ароматом малины (50 мл). Модель: egzo-ar-rsb. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4595,21 +4563,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Cyberskin (вторая кожа)</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr"/>
+          <t>50 мл</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -4621,12 +4589,8 @@
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="n">
-        <v>3.223</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>2.93</v>
-      </c>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4680,7 +4644,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-25773-1299</t>
+          <t>id-24527-1299</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4696,17 +4660,17 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25773/25773_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24527/24527_1_650.jpg</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оральный гель-смазка EGZO AROMA предназначен для повышения качества интимной жизни, обладает ярко выраженным вкусом и запахом яблока и корицы, добавит в прелюдию вкус и свежих ощущений.Гель увлажняет кожные покровы, создает продолжительное шелковистое скольжение, идеален для деликатного обращения с нежными поверхностями слизистой.Изготовлен на водной основе, легко смывается водой и не скатывается в процессе использования. Не оставляет следов на одежде. Удобный дозатор способствует быстрому, легкому нанесению.Можно совмещать со всеми видами латексных изделий. Подходит для использования в качестве классического лубриканта.Вкус яблока и корицы придаст приятную пикантную нотку оральным ласкам.Добавьте в Вашу прелюдию вкуса и новых ощущений.Не липнет к телу.Не пачкает одежду и постельное белье.Легко смывается с тела водой.Подходит для классического секса. Оральный гель на водной основе EGZO AROMA Apple Chinnamon ароматом яблока и корицы (50 мл.  Оральный гель на водной основе EGZO AROMA Apple Chinnamon ароматом яблока и корицы (50 мл. Модель: egzo-ar-appl. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Оральный гель-смазка EGZO AROMA предназначен для повышения качества интимной жизни, обладает ярко выраженным клубничным вкусом и запахом, добавит в прелюдию вкус и свежих ощущений.Гель увлажняет кожные покровы, создает продолжительное шелковистое скольжение, идеален для деликатного обращения с нежными поверхностями слизистой.Изготовлен на водной основе, легко смывается водой и не скатывается в процессе использования. Не оставляет следов на одежде. Удобный дозатор способствует быстрому, легкому нанесению.Можно совмещать со всеми видами латексных изделий. Подходит для использования в качестве классического лубриканта.Клубничный вкус придаст приятную пикантную нотку оральным ласкам.Добавьте в Вашу прелюдию вкуса и новых ощущений.Не липнет к телу.Не пачкает одежду и постельное белье.Легко смывается с тела водой.Подходит для классического секса. Оральный гель на водной основе EGZO AROMA Strawberry с ароматом клубники (50 мл).  Оральный гель на водной основе EGZO AROMA Strawberry с ароматом клубники (50 мл). Модель: egzo-ar-str. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4779,7 +4743,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -4795,12 +4759,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Оральный гель на водной основе EGZO</t>
+          <t>Анальный силиконовый гель EGZO HEY</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-24529-1299</t>
+          <t>id-25770-1299</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -4816,17 +4780,17 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24529/24529_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25770/25770_1_650.jpg</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оральный гель-смазка EGZO AROMA предназначен для повышения качества интимной жизни, обладает ярко выраженным вкусом и запахом банана, добавит в прелюдию вкус и свежих ощущений.Гель увлажняет кожные покровы, создает продолжительное шелковистое скольжение, идеален для деликатного обращения с нежными поверхностями слизистой.Изготовлен на водной основе, легко смывается водой и не скатывается в процессе использования. Не оставляет следов на одежде. Удобный дозатор способствует быстрому, легкому нанесению.Можно совмещать со всеми видами латексных изделий. Подходит для использования в качестве классического лубриканта.Банановый вкус придаст приятную пикантную нотку оральным ласкам.Добавьте в Вашу прелюдию вкуса и новых ощущений.Не пачкает одежду и постельное белье.Легко смывается с тела водой.Подходит для классического секса. Оральный гель на водной основе EGZO AROMA Banana с ароматом банана (50 мл).  Оральный гель на водной основе EGZO AROMA Banana с ароматом банана (50 мл). Модель: egzo-ar-bnn. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Увлажняющий анальный гель на силиконовой основе изготовлен с использованием натуральных компонентов. Обладает отличным скольжением, подходит для использования в воде. С интимными игрушками не рекомендуется использовать!.Анальный силиконовый гель EGZO HEY EXPERT LINE (50 мл).  Анальный силиконовый гель EGZO HEY EXPERT LINE (50 мл). Модель: egzo-hey-el-50. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: EGZO. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4899,13 +4863,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>EGZO</t>
+          <t>ЭКСМО</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4915,12 +4879,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Увлажняющий гель на водной основе EGZO</t>
+          <t>Журнал ГОЛАЯ ПРАВДА</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-24531-1299</t>
+          <t>id-27852-1299</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -4936,51 +4900,61 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24531/24531_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27852/27852_1_650.jpg</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оральный гель-смазка EGZO AROMA предназначен для повышения качества интимной жизни, обладает ярко выраженным вкусом и запахом шоколада, добавит в прелюдию вкус и свежих ощущений.Гель увлажняет кожные покровы, создает продолжительное шелковистое скольжение, идеален для деликатного обращения с нежными поверхностями слизистой.Изготовлен на водной основе, легко смывается водой и не скатывается в процессе использования. Не оставляет следов на одежде. Удобный дозатор способствует быстрому, легкому нанесению.Можно совмещать со всеми видами латексных изделий. Подходит для использования в качестве классического лубриканта.Шоколадный вкус придаст приятную пикантную нотку оральным ласкам.Добавьте в Вашу прелюдию вкуса и новых ощущений.Не липнет к телу.Не пачкает одежду и постельное белье.Легко смывается с тела водой.Подходит для классического секса. Увлажняющий гель на водной основе EGZO AROMA Chocolate с ароматом шоколада (50 мл).  Увлажняющий гель на водной основе EGZO AROMA Chocolate с ароматом шоколада (50 мл). Модель: egzo-ar-cho. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Журнал Голая правда выполнен в лучших традициях гламурного издания: тест, гороскоп, интервью и много увлекательных статей на пикантные темы.Удобный формат, легко помещается в дамской сумочке. Журнал ГОЛАЯ ПРАВДА.  Журнал ГОЛАЯ ПРАВДА. Модель: eks-1431. Печатная продукция. Эротические сувениры &gt; Печатная продукция. Материал: бумага. Батареек нет в комплекте. Бренд: ЭКСМО. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>бумага</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W36" t="n">
+        <v>15</v>
+      </c>
+      <c r="X36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>21</v>
+      </c>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
@@ -5019,32 +4993,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>EGZO</t>
+          <t>ELECTRIC LINGERIE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Оральный гель на водной основе EGZO</t>
+          <t>Трусики голубые в горошек на завязках</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-24530-1299</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+          <t>id-5234-1299</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>99999</v>
@@ -5056,17 +5038,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24530/24530_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/5234/5234_1_650.jpg</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оральный гель-смазка EGZO AROMA предназначен для повышения качества интимной жизни, обладает ярко выраженным вкусом и запахом мороженого, добавит в прелюдию вкус и свежих ощущений.Гель увлажняет кожные покровы, создает продолжительное шелковистое скольжение, идеален для деликатного обращения с нежными поверхностями слизистой.Изготовлен на водной основе, легко смывается водой и не скатывается в процессе использования. Не оставляет следов на одежде. Удобный дозатор способствует быстрому, легкому нанесению.Можно совмещать со всеми видами латексных изделий. Подходит для использования в качестве классического лубриканта.Вкус мороженого придаст приятную пикантную нотку оральным ласкам.Добавьте в Вашу прелюдию вкуса и новых ощущений.Не липнет к телу.Не пачкает одежду и постельное белье.Легко смывается с тела водой.Подходит для классического секса. Оральный гель на водной основе EGZO AROMA Ice Cream с ароматом мороженого (50 мл).  Оральный гель на водной основе EGZO AROMA Ice Cream с ароматом мороженого (50 мл). Модель: egzo-ar-ice. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">.Трусики голубые в горошек на завязках.  Трусики голубые в горошек на завязках. Модель: electric-l-cl-094slbl. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: голубой. Батареек нет в комплекте. Бренд: ELECTRIC LINGERIE. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5083,17 +5065,13 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -5139,13 +5117,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>EGZO</t>
+          <t>ЭРОТИЧЕСКИЕ СУВЕНИРЫ</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -5155,12 +5133,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Оральный гель на водной основе EGZO</t>
+          <t>Фигурное мыло Фаворит на присоске 10,5</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-25772-1299</t>
+          <t>id-27966-1299</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -5176,57 +5154,67 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25772/25772_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27966/27966_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27966/27966_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27966/27966_3_650.jpg</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оральный гель-смазка EGZO AROMA предназначен для повышения качества интимной жизни, обладает ярко выраженным вкусом и запахом манго, добавит в прелюдию вкус и свежих ощущений.Гель увлажняет кожные покровы, создает продолжительное шелковистое скольжение, идеален для деликатного обращения с нежными поверхностями слизистой.Изготовлен на водной основе, легко смывается водой и не скатывается в процессе использования. Не оставляет следов на одежде. Удобный дозатор способствует быстрому, легкому нанесению.Можно совмещать со всеми видами латексных изделий. Подходит для использования в качестве классического лубриканта.Вкус манго придаст приятную пикантную нотку оральным ласкам.Добавьте в Вашу прелюдию вкуса и новых ощущений.Не липнет к телу.Не пачкает одежду и постельное белье.Легко смывается с тела водой.Подходит для классического секса. Оральный гель на водной основе EGZO AROMA Mango ароматом манго (50 мл).  Оральный гель на водной основе EGZO AROMA Mango ароматом манго (50 мл). Модель: egzo-ar-mang-50. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Фигурное мыло в виде фаллоса на присоске - отличный подарок с изюминкой на девичник, день Рождения. В основании фаллоса имеется присоска, которая позволяет закрепить фаллос на раковине или стене. Чтобы намылить руки необходимо водить ими вверх-вниз по стволу фаллоса, что выглядит очень эротично. . Фигурное мыло Фаворит на присоске (10,5 см).  Фигурное мыло Фаворит на присоске (10,5 см). Модель: ero-3307239. Приколы. Эротические сувениры &gt; Сувениры. Цвет: телесный. Материал: мыло. Батареек нет в комплекте. Бренд: ЭРОТИЧЕСКИЕ СУВЕНИРЫ. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>мыло</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
+      <c r="Y38" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>10.5</v>
+      </c>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
+      <c r="AF38" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>2.7</v>
+      </c>
       <c r="AH38" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5259,13 +5247,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>EGZO</t>
+          <t>ЭРОТИЧЕСКИЕ СУВЕНИРЫ</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -5275,12 +5263,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Оральный гель на водной основе EGZO</t>
+          <t>Свеча фигурная Фаворит (12 см)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-25771-1299</t>
+          <t>id-27965-1299</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -5296,44 +5284,44 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25771/25771_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27965/27965_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27965/27965_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27965/27965_3_650.jpg</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оральный гель-смазка EGZO AROMA предназначен для повышения качества интимной жизни, обладает ярко выраженным вкусом и запахом красного апельсина, добавит в прелюдию вкус и свежих ощущений.Гель увлажняет кожные покровы, создает продолжительное шелковистое скольжение, идеален для деликатного обращения с нежными поверхностями слизистой.Изготовлен на водной основе, легко смывается водой и не скатывается в процессе использования. Не оставляет следов на одежде. Удобный дозатор способствует быстрому, легкому нанесению.Можно совмещать со всеми видами латексных изделий. Подходит для использования в качестве классического лубриканта.Вкус красного апельсина придаст приятную пикантную нотку оральным ласкам.Добавьте в Вашу прелюдию вкуса и новых ощущений.Не липнет к телу.Не пачкает одежду и постельное белье.Легко смывается с тела водой.Подходит для классического секса. Оральный гель на водной основе EGZO AROMA Red Orangeс ароматом красного апельсина (50 мл).  Оральный гель на водной основе EGZO AROMA Red Orangeс ароматом красного апельсина (50 мл). Модель: egzo-ar-oran-50. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Отличная свеча в виде фаллоса, подойдет на любую вечеринку, день рождения, презент с намеком. Свеча фигурная Фаворит (12 см).  Свеча фигурная Фаворит (12 см). Модель: ero-6830372. Приколы. Эротические сувениры &gt; Сувениры. Цвет: молочный. Материал: воск. Батареек нет в комплекте. Бренд: ЭРОТИЧЕСКИЕ СУВЕНИРЫ. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>воск</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -5341,12 +5329,20 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
+      <c r="AB39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>13.2</v>
+      </c>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
+      <c r="AF39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>3</v>
+      </c>
       <c r="AH39" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5379,13 +5375,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>EGZO</t>
+          <t>ЭРОТИЧЕСКИЕ СУВЕНИРЫ</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -5395,12 +5391,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Оральный гель на водной основе EGZO</t>
+          <t>Небольшое фигурное мыло Фаворит с</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-24528-1299</t>
+          <t>id-27913-1299</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -5416,57 +5412,65 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24528/24528_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27913/27913_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27913/27913_2_650.jpg</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оральная смазка - лубрикант EGZO AROMA на водной основе - оральный гель со вкусом малины.Оральный гель-смазка EGZO AROMA предназначен для повышения качества интимной жизни, обладает ярко выраженным вкусом и запахом малины, добавит в прелюдию вкус и свежих ощущений.Гель увлажняет кожные покровы, создает продолжительное шелковистое скольжение, идеален для деликатного обращения с нежными поверхностями слизистой.Изготовлен на водной основе, легко смывается водой и не скатывается в процессе использования. Не оставляет следов на одежде. Удобный дозатор способствует быстрому, легкому нанесению.Можно совмещать со всеми видами латексных изделий. Подходит для использования в качестве классического лубриканта.Вкус малины придаст приятную пикантную нотку оральным ласкам.Добавьте в Вашу прелюдию вкуса и новых ощущений.Не липнет к телу.Не пачкает одежду и постельное белье.Легко смывается с тела водой.Подходит для классического секса. Оральный гель на водной основе EGZO AROMA Raspberry с ароматом малины (50 мл).  Оральный гель на водной основе EGZO AROMA Raspberry с ароматом малины (50 мл). Модель: egzo-ar-rsb. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Небольшое сувенирное мыло в виде фаллоса с крыльями. Отличный сюрприз-прикол для друзей. Небольшое фигурное мыло Фаворит с крыльями (35 г).  Небольшое фигурное мыло Фаворит с крыльями (35 г). Модель: ero-7096480. Приколы. Эротические сувениры &gt; Сувениры. Цвет: телесный. Батареек нет в комплекте. Бренд: ЭРОТИЧЕСКИЕ СУВЕНИРЫ. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W40" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X40" t="n">
+        <v>7.48</v>
+      </c>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
+      <c r="AB40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>7.15</v>
+      </c>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
+      <c r="AF40" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1.8</v>
+      </c>
       <c r="AH40" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5499,32 +5503,40 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Топы эротик</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>EGZO</t>
+          <t>EROLANTA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Оральный гель на водной основе EGZO</t>
+          <t>Черный эластичный стрэп с V-образным</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-24527-1299</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+          <t>id-23791-1299</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>99999</v>
@@ -5536,17 +5548,17 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24527/24527_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23791/23791_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23791/23791_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23791/23791_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23791/23791_4_650.jpg</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оральный гель-смазка EGZO AROMA предназначен для повышения качества интимной жизни, обладает ярко выраженным клубничным вкусом и запахом, добавит в прелюдию вкус и свежих ощущений.Гель увлажняет кожные покровы, создает продолжительное шелковистое скольжение, идеален для деликатного обращения с нежными поверхностями слизистой.Изготовлен на водной основе, легко смывается водой и не скатывается в процессе использования. Не оставляет следов на одежде. Удобный дозатор способствует быстрому, легкому нанесению.Можно совмещать со всеми видами латексных изделий. Подходит для использования в качестве классического лубриканта.Клубничный вкус придаст приятную пикантную нотку оральным ласкам.Добавьте в Вашу прелюдию вкуса и новых ощущений.Не липнет к телу.Не пачкает одежду и постельное белье.Легко смывается с тела водой.Подходит для классического секса. Оральный гель на водной основе EGZO AROMA Strawberry с ароматом клубники (50 мл).  Оральный гель на водной основе EGZO AROMA Strawberry с ароматом клубники (50 мл). Модель: egzo-ar-str. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Эластичный аксессуар с V-образным силуэтом создаёт акцент в зоне декольте. Подойдет под любой повседневный образ. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Черный эластичный стрэп с V-образным переплетением H.E.L. Libby.  Черный эластичный стрэп с V-образным переплетением H.E.L. Libby. Модель: erolanta-470501slb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5559,21 +5571,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -5619,32 +5631,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Топы эротик</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>EGZO</t>
+          <t>EROLANTA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Анальный силиконовый гель EGZO HEY</t>
+          <t>Сетчатый лиф с эластичными лентами</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-25770-1299</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+          <t>id-23777-1299</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>99999</v>
@@ -5656,17 +5676,17 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25770/25770_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23777/23777_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23777/23777_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23777/23777_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23777/23777_4_650.jpg</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Увлажняющий анальный гель на силиконовой основе изготовлен с использованием натуральных компонентов. Обладает отличным скольжением, подходит для использования в воде. С интимными игрушками не рекомендуется использовать!.Анальный силиконовый гель EGZO HEY EXPERT LINE (50 мл).  Анальный силиконовый гель EGZO HEY EXPERT LINE (50 мл). Модель: egzo-hey-el-50. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Сексуальный лиф выполнен из сетки. Эластичные ленты создают акценты в зоне декольте. Пикантный намек на сексуальность в повседневном образе. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!.Сетчатый лиф с эластичными лентами H.E.L. Tessie.  Сетчатый лиф с эластичными лентами H.E.L. Tessie. Модель: erolanta-470502slb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5679,21 +5699,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -5739,32 +5759,40 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Топы эротик</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ЭКСМО</t>
+          <t>EROLANTA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Журнал ГОЛАЯ ПРАВДА</t>
+          <t>Эластичный стрэп с перекрещиванием над</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-27852-1299</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+          <t>id-23806-1299</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
         <v>99999</v>
@@ -5776,12 +5804,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27852/27852_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23806/23806_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23806/23806_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23806/23806_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23806/23806_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23806/23806_1_650.jpg</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Журнал Голая правда выполнен в лучших традициях гламурного издания: тест, гороскоп, интервью и много увлекательных статей на пикантные темы.Удобный формат, легко помещается в дамской сумочке. Журнал ГОЛАЯ ПРАВДА.  Журнал ГОЛАЯ ПРАВДА. Модель: eks-1431. Печатная продукция. Эротические сувениры &gt; Печатная продукция. Материал: бумага. Батареек нет в комплекте. Бренд: ЭКСМО. </t>
+          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Стрэп TibbyТоп из широких эластичных лент, которые создают множество переплетений на груди. Такой топ украсит ваш повседневный образ. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Эластичный стрэп с перекрещиванием над грудью H.E.L. Nelli.  Эластичный стрэп с перекрещиванием над грудью H.E.L. Nelli. Модель: erolanta-470503slb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -5791,17 +5819,17 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>бумага</t>
+          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -5816,21 +5844,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W43" t="n">
-        <v>15</v>
-      </c>
-      <c r="X43" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>21</v>
-      </c>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
@@ -5869,13 +5887,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Портупеи эротик</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ELECTRIC LINGERIE</t>
+          <t>EROLANTA</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5885,12 +5903,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Трусики голубые в горошек на завязках</t>
+          <t>Эластичный стрэп с шипами и цепочкой</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-5234-1299</t>
+          <t>id-23810-1299</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -5914,17 +5932,17 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/5234/5234_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23810/23810_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23810/23810_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23810/23810_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23810/23810_2_650.jpg</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Трусики голубые в горошек на завязках.  Трусики голубые в горошек на завязках. Модель: electric-l-cl-094slbl. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: голубой. Батареек нет в комплекте. Бренд: ELECTRIC LINGERIE. </t>
+          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Стрэп DovieЗвезда из лент в области декольте украшена металлическими шипами. Две тонкие металлические цепочки украшают талию. Отличный аксессуар для вечеринки. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Эластичный стрэп с шипами и цепочкой H.E.L. Dovie.  Эластичный стрэп с шипами и цепочкой H.E.L. Dovie. Модель: erolanta-470504slb. Белье. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -5937,7 +5955,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr">
         <is>
@@ -5993,32 +6015,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Пояса эротик</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ЭРОТИЧЕСКИЕ СУВЕНИРЫ</t>
+          <t>EROLANTA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Фигурное мыло Фаворит на присоске 10,5</t>
+          <t>Красный эластичный пояс для чулок из</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-27966-1299</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+          <t>id-23789-1299</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>99999</v>
@@ -6030,12 +6060,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27966/27966_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27966/27966_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27966/27966_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23789/23789_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23789/23789_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23789/23789_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23789/23789_4_650.jpg</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Фигурное мыло в виде фаллоса на присоске - отличный подарок с изюминкой на девичник, день Рождения. В основании фаллоса имеется присоска, которая позволяет закрепить фаллос на раковине или стене. Чтобы намылить руки необходимо водить ими вверх-вниз по стволу фаллоса, что выглядит очень эротично. . Фигурное мыло Фаворит на присоске (10,5 см).  Фигурное мыло Фаворит на присоске (10,5 см). Модель: ero-3307239. Приколы. Эротические сувениры &gt; Сувениры. Цвет: телесный. Материал: мыло. Батареек нет в комплекте. Бренд: ЭРОТИЧЕСКИЕ СУВЕНИРЫ. </t>
+          <t xml:space="preserve">Тонкие двойные ленты на поясе подчеркивают талию. Две ленты с застёжкой для закрепления чулок. Идеальный аксессуар для соблазнения. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Красный эластичный пояс для чулок из эластичных лент H.E.L. Dillie.  Красный эластичный пояс для чулок из эластичных лент H.E.L. Dillie. Модель: erolanta-470506slr. Белье. Эротическое белье для женщин &gt; Пояса для чулок. Цвет: благородный красный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -6055,7 +6085,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>мыло</t>
+          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -6072,25 +6102,15 @@
       </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>2.7</v>
-      </c>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6123,32 +6143,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ЭРОТИЧЕСКИЕ СУВЕНИРЫ</t>
+          <t>EROLANTA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Свеча фигурная Фаворит (12 см)</t>
+          <t>Трусики с регулировкой объема H.E.L.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-27965-1299</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+          <t>id-23811-1299</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>99999</v>
@@ -6160,12 +6188,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27965/27965_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27965/27965_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27965/27965_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23811/23811_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23811/23811_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23811/23811_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23811/23811_3_650.jpg</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Отличная свеча в виде фаллоса, подойдет на любую вечеринку, день рождения, презент с намеком. Свеча фигурная Фаворит (12 см).  Свеча фигурная Фаворит (12 см). Модель: ero-6830372. Приколы. Эротические сувениры &gt; Сувениры. Цвет: молочный. Материал: воск. Батареек нет в комплекте. Бренд: ЭРОТИЧЕСКИЕ СУВЕНИРЫ. </t>
+          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Трусики MellieТрусики из черной сетки с множественными эластичными лентами. На попе все ленты соединяются на кольце. Идеальный аксессуар для соблазнения. Трусики с регулировкой объема H.E.L. Mellie.  Трусики с регулировкой объема H.E.L. Mellie. Модель: erolanta-470507slb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -6175,17 +6203,17 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>воск</t>
+          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -6205,20 +6233,12 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>3</v>
-      </c>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6251,32 +6271,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ЭРОТИЧЕСКИЕ СУВЕНИРЫ</t>
+          <t>EROLANTA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Небольшое фигурное мыло Фаворит с</t>
+          <t>Красные трусики-стрэпы H.E.L. Trixi SL</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-27913-1299</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+          <t>id-23778-1299</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
         <v>99999</v>
@@ -6288,12 +6316,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27913/27913_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27913/27913_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23778/23778_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23778/23778_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23778/23778_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23778/23778_4_650.jpg</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Небольшое сувенирное мыло в виде фаллоса с крыльями. Отличный сюрприз-прикол для друзей. Небольшое фигурное мыло Фаворит с крыльями (35 г).  Небольшое фигурное мыло Фаворит с крыльями (35 г). Модель: ero-7096480. Приколы. Эротические сувениры &gt; Сувениры. Цвет: телесный. Батареек нет в комплекте. Бренд: ЭРОТИЧЕСКИЕ СУВЕНИРЫ. </t>
+          <t xml:space="preserve">Эластичные ленты благородного красного цвета закреплены на кольце впереди. Идеальный аксессуар для соблазнения.Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!.Красные трусики-стрэпы H.E.L. Trixi SL.  Красные трусики-стрэпы H.E.L. Trixi SL. Модель: erolanta-470508slr. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: благородный красный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -6303,15 +6331,19 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
+        </is>
+      </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
@@ -6324,29 +6356,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W47" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X47" t="n">
-        <v>7.48</v>
-      </c>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>1.8</v>
-      </c>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6379,7 +6399,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -6395,12 +6415,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Черный эластичный стрэп с V-образным</t>
+          <t>Эластичные трусики-стрэпы H.E.L. Letty</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-23791-1299</t>
+          <t>id-23779-1299</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -6424,12 +6444,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23791/23791_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23791/23791_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23791/23791_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23791/23791_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23779/23779_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23779/23779_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23779/23779_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23779/23779_4_650.jpg</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный аксессуар с V-образным силуэтом создаёт акцент в зоне декольте. Подойдет под любой повседневный образ. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Черный эластичный стрэп с V-образным переплетением H.E.L. Libby.  Черный эластичный стрэп с V-образным переплетением H.E.L. Libby. Модель: erolanta-470501slb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Высокие трусики из эластичных лент, которые закреплены на кольцах. Идеальный аксессуар для соблазнения.Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!.Эластичные трусики-стрэпы H.E.L. Letty.  Эластичные трусики-стрэпы H.E.L. Letty. Модель: erolanta-470509slb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -6523,12 +6543,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Сетчатый лиф с эластичными лентами</t>
+          <t>Эластичный стрэп с перекрещиванием над</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-23777-1299</t>
+          <t>id-23805-1299</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -6552,12 +6572,12 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23777/23777_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23777/23777_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23777/23777_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23777/23777_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23805/23805_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23805/23805_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23805/23805_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23805/23805_2_650.jpg</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальный лиф выполнен из сетки. Эластичные ленты создают акценты в зоне декольте. Пикантный намек на сексуальность в повседневном образе. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!.Сетчатый лиф с эластичными лентами H.E.L. Tessie.  Сетчатый лиф с эластичными лентами H.E.L. Tessie. Модель: erolanta-470502slb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Открытая грудь в обрамлении широких и тонких эластичных лент. Подчеркнет ваши формы и добавит образу пикантности. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!Стрэп NelliСтрэп - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!.Эластичный стрэп с перекрещиванием над грудью H.E.L. Nelli.  Эластичный стрэп с перекрещиванием над грудью H.E.L. Nelli. Модель: erolanta-470511slb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -6635,7 +6655,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Портупеи эротик</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -6651,12 +6671,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Эластичный стрэп с перекрещиванием над</t>
+          <t>Эластичный стрэп H.E.L. Roxie</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-23806-1299</t>
+          <t>id-23783-1299</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -6680,12 +6700,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23806/23806_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23806/23806_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23806/23806_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23806/23806_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23806/23806_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23783/23783_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23783/23783_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23783/23783_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23783/23783_4_650.jpg</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Стрэп TibbyТоп из широких эластичных лент, которые создают множество переплетений на груди. Такой топ украсит ваш повседневный образ. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Эластичный стрэп с перекрещиванием над грудью H.E.L. Nelli.  Эластичный стрэп с перекрещиванием над грудью H.E.L. Nelli. Модель: erolanta-470503slb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Стрэп RoxieЭластичный аксессуар с V-образным силуэтом создаёт акцент в зоне декольте. Идеальный аксессуар под пиджак или блузку. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Эластичный стрэп H.E.L. Roxie.  Эластичный стрэп H.E.L. Roxie. Модель: erolanta-470513slb. Белье. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -6763,7 +6783,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Пояса эротик</t>
+          <t>Топы эротик</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -6779,12 +6799,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Красный эластичный пояс для чулок из</t>
+          <t>Эластичный стрэп с регулирующимися</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-23789-1299</t>
+          <t>id-23877-1299</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -6808,17 +6828,17 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23789/23789_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23789/23789_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23789/23789_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23789/23789_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23877/23877_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23877/23877_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23877/23877_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23877/23877_4_650.jpg</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Тонкие двойные ленты на поясе подчеркивают талию. Две ленты с застёжкой для закрепления чулок. Идеальный аксессуар для соблазнения. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Красный эластичный пояс для чулок из эластичных лент H.E.L. Dillie.  Красный эластичный пояс для чулок из эластичных лент H.E.L. Dillie. Модель: erolanta-470506slr. Белье. Эротическое белье для женщин &gt; Пояса для чулок. Цвет: благородный красный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Широкие ленты, закрепленные на кольцах, создают эффект топа на груди. Такой аксессуар добавит пикантности вашему образу на вечеринке. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Эластичный стрэп с регулирующимися лентами H.E.L. GIllie.  Эластичный стрэп с регулирующимися лентами H.E.L. GIllie. Модель: erolanta-470515. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% шелковая нить, 5% резиновая нить. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Гонконг</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -6833,7 +6853,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
+          <t>85% полиэстер, 10% шелковая нить, 5% резиновая нить</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -6891,7 +6911,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Портупеи эротик</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -6907,12 +6927,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Трусики с регулировкой объема H.E.L.</t>
+          <t>Эластичный стрэп H.E.L. Ava</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-23811-1299</t>
+          <t>id-23782-1299</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -6936,12 +6956,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23811/23811_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23811/23811_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23811/23811_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23811/23811_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23782/23782_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23782/23782_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23782/23782_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23782/23782_4_650.jpg</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Трусики MellieТрусики из черной сетки с множественными эластичными лентами. На попе все ленты соединяются на кольце. Идеальный аксессуар для соблазнения. Трусики с регулировкой объема H.E.L. Mellie.  Трусики с регулировкой объема H.E.L. Mellie. Модель: erolanta-470507slb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Стрэп AvaИзящный стрэп с двойным чокером и с тонкой окантовкой эластичной ленты под грудью. В этом стрэпе сочетается элегантность и простота. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Эластичный стрэп H.E.L. Ava.  Эластичный стрэп H.E.L. Ava. Модель: erolanta-470516slb. Белье. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% исск. шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -6961,7 +6981,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
+          <t>85% полиэстер, 10% исск. шелк, 5% эластан</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -7019,7 +7039,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Портупеи эротик</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -7035,12 +7055,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Эластичные трусики-стрэпы H.E.L. Letty</t>
+          <t>Эластичный стрэп H.E.L. Ollie</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-23779-1299</t>
+          <t>id-23781-1299</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -7064,12 +7084,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23779/23779_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23779/23779_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23779/23779_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23779/23779_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23781/23781_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23781/23781_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23781/23781_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23781/23781_3_650.jpg</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Высокие трусики из эластичных лент, которые закреплены на кольцах. Идеальный аксессуар для соблазнения.Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!.Эластичные трусики-стрэпы H.E.L. Letty.  Эластичные трусики-стрэпы H.E.L. Letty. Модель: erolanta-470509slb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Стрэп OllieПростые и четкие линии из тонких лент подчеркивают зону декольте. Такой аксессуар будет эффектно смотреться в повседневном образе. Эластичный стрэп H.E.L. Ollie.  Эластичный стрэп H.E.L. Ollie. Модель: erolanta-470517slb. Белье. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -7147,7 +7167,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Стрэпы эротик</t>
+          <t>Топы эротик</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -7163,12 +7183,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Эластичный стрэп H.E.L. Roxie</t>
+          <t>Красный эластичный стрэп со сложным</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-23783-1299</t>
+          <t>id-23792-1299</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -7192,12 +7212,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23783/23783_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23783/23783_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23783/23783_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23783/23783_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23792/23792_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23792/23792_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23792/23792_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23792/23792_4_650.jpg</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Стрэп RoxieЭластичный аксессуар с V-образным силуэтом создаёт акцент в зоне декольте. Идеальный аксессуар под пиджак или блузку. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Эластичный стрэп H.E.L. Roxie.  Эластичный стрэп H.E.L. Roxie. Модель: erolanta-470513slb. Белье. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Тонкие ленты красного цвета переплетаются на шее и создают акцент на груди. Такой аксессуар будет эффектно смотреться в повседневном образе. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Красный эластичный стрэп со сложным переплетением H.E.L. Riley SL.  Красный эластичный стрэп со сложным переплетением H.E.L. Riley SL. Модель: erolanta-470518slb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: красный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -7275,7 +7295,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Портупеи эротик</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -7291,12 +7311,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Эластичный стрэп с регулирующимися</t>
+          <t>Эластичный стрэп H.E.L. Kaylee</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-23877-1299</t>
+          <t>id-23809-1299</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -7320,32 +7340,32 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23877/23877_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23877/23877_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23877/23877_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23877/23877_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23809/23809_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23809/23809_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23809/23809_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23809/23809_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23809/23809_4_650.jpg</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Широкие ленты, закрепленные на кольцах, создают эффект топа на груди. Такой аксессуар добавит пикантности вашему образу на вечеринке. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Эластичный стрэп с регулирующимися лентами H.E.L. GIllie.  Эластичный стрэп с регулирующимися лентами H.E.L. GIllie. Модель: erolanta-470515. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% шелковая нить, 5% резиновая нить. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе! Стрэп KayleeЭлегантность и простота в тонких лентах и эффектном V-образным украшении шеи. Идеальный аксессуар под пиджак или блузку. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Эластичный стрэп H.E.L. Kaylee.  Эластичный стрэп H.E.L. Kaylee. Модель: erolanta-470519slb. Белье. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Гонконг</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>85% полиэстер, 10% шелковая нить, 5% резиновая нить</t>
+          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -7403,7 +7423,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Стрэпы эротик</t>
+          <t>Топы эротик</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -7419,12 +7439,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Эластичный стрэп H.E.L. Ava</t>
+          <t>Красный эластичный стрэп с узором лучей</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-23782-1299</t>
+          <t>id-23790-1299</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -7448,12 +7468,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23782/23782_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23782/23782_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23782/23782_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23782/23782_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23790/23790_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23790/23790_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23790/23790_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23790/23790_4_650.jpg</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Стрэп AvaИзящный стрэп с двойным чокером и с тонкой окантовкой эластичной ленты под грудью. В этом стрэпе сочетается элегантность и простота. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Эластичный стрэп H.E.L. Ava.  Эластичный стрэп H.E.L. Ava. Модель: erolanta-470516slb. Белье. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% исск. шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Изящное украшение зоны декольте из тонких лент красного цвета. Утонченный и изысканный дизайн добавит образу сексуальности. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Красный эластичный стрэп с узором лучей H.E.L. Brielle.  Красный эластичный стрэп с узором лучей H.E.L. Brielle. Модель: erolanta-470520slb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: благородный красный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -7473,7 +7493,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>85% полиэстер, 10% исск. шелк, 5% эластан</t>
+          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -7531,7 +7551,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Стрэпы эротик</t>
+          <t>Топы эротик</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -7547,12 +7567,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Эластичный стрэп H.E.L. Ollie</t>
+          <t>Эластичный стрэп с сеточкой H.E.L.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-23781-1299</t>
+          <t>id-23794-1299</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -7576,12 +7596,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23781/23781_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23781/23781_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23781/23781_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23781/23781_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23794/23794_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23794/23794_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23794/23794_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23794/23794_3_650.jpg</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Стрэп OllieПростые и четкие линии из тонких лент подчеркивают зону декольте. Такой аксессуар будет эффектно смотреться в повседневном образе. Эластичный стрэп H.E.L. Ollie.  Эластичный стрэп H.E.L. Ollie. Модель: erolanta-470517slb. Белье. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Стрэп KonnieЛиф из черной сетки с множественными переплетениями из тонких лент в области декольте. В повседневном образе добавит сексуальности и пикантности. Благодаря регулируемым ремешкам - идеальная посадка по ыигуре гарантирована!.Эластичный стрэп с сеточкой H.E.L. Konniei.  Эластичный стрэп с сеточкой H.E.L. Konniei. Модель: erolanta-470521. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -7659,7 +7679,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Портупеи эротик</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -7675,12 +7695,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Красный эластичный стрэп со сложным</t>
+          <t>Эластичный стрэп H.E.L. Hloe</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-23792-1299</t>
+          <t>id-23780-1299</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -7704,12 +7724,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23792/23792_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23792/23792_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23792/23792_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23792/23792_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23780/23780_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23780/23780_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23780/23780_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23780/23780_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23780/23780_1_650.jpg</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Тонкие ленты красного цвета переплетаются на шее и создают акцент на груди. Такой аксессуар будет эффектно смотреться в повседневном образе. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Красный эластичный стрэп со сложным переплетением H.E.L. Riley SL.  Красный эластичный стрэп со сложным переплетением H.E.L. Riley SL. Модель: erolanta-470518slb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: красный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Стрэп HloeПростые и четкие линии из тонких лент подчеркивают зону декольте. Стрэп игриво подчеркивает формы, создавая сексуальные акценты. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Эластичный стрэп H.E.L. Hloe.  Эластичный стрэп H.E.L. Hloe. Модель: erolanta-470522slb. Белье. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -7787,7 +7807,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Стрэпы эротик</t>
+          <t>Топы эротик</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -7803,12 +7823,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Эластичный стрэп H.E.L. Kaylee</t>
+          <t>Черный эластичный стреп H.E.L. Kortni</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-23809-1299</t>
+          <t>id-23808-1299</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -7832,12 +7852,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23809/23809_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23809/23809_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23809/23809_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23809/23809_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23809/23809_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23808/23808_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23808/23808_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23808/23808_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23808/23808_4_650.jpg</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе! Стрэп KayleeЭлегантность и простота в тонких лентах и эффектном V-образным украшении шеи. Идеальный аксессуар под пиджак или блузку. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Эластичный стрэп H.E.L. Kaylee.  Эластичный стрэп H.E.L. Kaylee. Модель: erolanta-470519slb. Белье. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Стрэп KortniИзящный стрэп из тонких лент на кольцах подчеркивает грудь и талию. Яркий аксессуар, который добавит образу пикантности. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Черный эластичный стреп H.E.L. Kortni.  Черный эластичный стреп H.E.L. Kortni. Модель: erolanta-470523slb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -7915,7 +7935,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -7931,22 +7951,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Красный эластичный стрэп с узором лучей</t>
+          <t>Эротическое боди из кружевного полотна</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-23790-1299</t>
+          <t>id-19908-1299</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -7960,12 +7980,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23790/23790_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23790/23790_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23790/23790_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23790/23790_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19908/19908_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19908/19908_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19908/19908_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19908/19908_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19908/19908_4_650.jpg</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изящное украшение зоны декольте из тонких лент красного цвета. Утонченный и изысканный дизайн добавит образу сексуальности. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Красный эластичный стрэп с узором лучей H.E.L. Brielle.  Красный эластичный стрэп с узором лучей H.E.L. Brielle. Модель: erolanta-470520slb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: благородный красный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Эротическое боди из плотного кружевного полотна, с фигурным декольте. Застежка на шее. Открытая спинка. Перекрещивающиеся бретели соединены с регулируемым поясом. Ростовка изделия 162-164 см. Допускается замена кружева на аналогичное. Эротическое боди из кружевного полотна с доступом LXL.  Эротическое боди из кружевного полотна с доступом LXL. Модель: erolanta-740021lxlb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 78% полиамид, 22% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -7985,7 +8005,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
+          <t>78% полиамид, 22% эластан</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -8043,7 +8063,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -8059,22 +8079,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Эластичный стрэп с сеточкой H.E.L.</t>
+          <t>Эротическое боди из кружевного полотна</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-23794-1299</t>
+          <t>id-20668-1299</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -8088,12 +8108,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23794/23794_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23794/23794_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23794/23794_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23794/23794_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20668/20668_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20668/20668_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20668/20668_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20668/20668_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20668/20668_7_650.jpg</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Стрэп KonnieЛиф из черной сетки с множественными переплетениями из тонких лент в области декольте. В повседневном образе добавит сексуальности и пикантности. Благодаря регулируемым ремешкам - идеальная посадка по ыигуре гарантирована!.Эластичный стрэп с сеточкой H.E.L. Konniei.  Эластичный стрэп с сеточкой H.E.L. Konniei. Модель: erolanta-470521. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Эротическое боди из плотного кружевного полотна, с фигурным декольте. Застежка на шее. Открытая спинка. Перекрещивающиеся бретели соединены с регулируемым поясом. Ростовка изделия 162-164 см. Допускается замена кружева на аналогичное. Эротическое боди из кружевного полотна с доступом ML.  Эротическое боди из кружевного полотна с доступом ML. Модель: erolanta-740021mlb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 78% полиамид, 22% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -8113,7 +8133,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
+          <t>78% полиамид, 22% эластан</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -8192,17 +8212,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-19908-1299</t>
+          <t>id-19907-1299</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -8216,12 +8236,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19908/19908_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19908/19908_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19908/19908_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19908/19908_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19908/19908_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19907/19907_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19907/19907_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19907/19907_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19907/19907_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19907/19907_7_650.jpg</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротическое боди из плотного кружевного полотна, с фигурным декольте. Застежка на шее. Открытая спинка. Перекрещивающиеся бретели соединены с регулируемым поясом. Ростовка изделия 162-164 см. Допускается замена кружева на аналогичное. Эротическое боди из кружевного полотна с доступом LXL.  Эротическое боди из кружевного полотна с доступом LXL. Модель: erolanta-740021lxlb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 78% полиамид, 22% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Эротическое боди из плотного кружевного полотна, с фигурным декольте. Застежка на шее. Открытая спинка. Перекрещивающиеся бретели соединены с регулируемым поясом. Ростовка изделия 162-164 см. Допускается замена кружева на аналогичное. Эротическое боди из кружевного полотна с доступом SM.  Эротическое боди из кружевного полотна с доступом SM. Модель: erolanta-740021smb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 78% полиамид, 22% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -8299,7 +8319,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -8315,22 +8335,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Эротическое боди из кружевного полотна</t>
+          <t>Белые контактные трусики-пояс IVETA LXL</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-20668-1299</t>
+          <t>id-28304-1299</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -8344,12 +8364,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20668/20668_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20668/20668_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20668/20668_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20668/20668_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20668/20668_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28304/28304_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28304/28304_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28304/28304_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28304/28304_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28304/28304_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28304/28304_6_650.jpg</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротическое боди из плотного кружевного полотна, с фигурным декольте. Застежка на шее. Открытая спинка. Перекрещивающиеся бретели соединены с регулируемым поясом. Ростовка изделия 162-164 см. Допускается замена кружева на аналогичное. Эротическое боди из кружевного полотна с доступом ML.  Эротическое боди из кружевного полотна с доступом ML. Модель: erolanta-740021mlb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 78% полиамид, 22% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Эротические трусики-пояс Erolanta Iveta из эластичной сетки со вставками кружева, с декоративными вырезами. Имитация пояса со свободным ажурным краем. Атласный бантик спереди. Высокая посадка. Регулируемые пажи.Допускается замена кружева на аналогичное. Чулки в комплект не входят. Белые контактные трусики-пояс IVETA LXL.  Белые контактные трусики-пояс IVETA LXL. Модель: erolanta-741122lxlw. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Пояса для чулок. Цвет: белый. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -8369,7 +8389,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>78% полиамид, 22% эластан</t>
+          <t>91% полиамид, 9% эластан</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -8407,7 +8427,7 @@
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>пояс-трусики</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
@@ -8427,7 +8447,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -8443,22 +8463,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Эротическое боди из кружевного полотна</t>
+          <t>Белые контактные трусики-пояс IVETA ML</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-19907-1299</t>
+          <t>id-28303-1299</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -8472,12 +8492,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19907/19907_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19907/19907_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19907/19907_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19907/19907_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19907/19907_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28303/28303_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28303/28303_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28303/28303_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28303/28303_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28303/28303_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28303/28303_6_650.jpg</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротическое боди из плотного кружевного полотна, с фигурным декольте. Застежка на шее. Открытая спинка. Перекрещивающиеся бретели соединены с регулируемым поясом. Ростовка изделия 162-164 см. Допускается замена кружева на аналогичное. Эротическое боди из кружевного полотна с доступом SM.  Эротическое боди из кружевного полотна с доступом SM. Модель: erolanta-740021smb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 78% полиамид, 22% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Эротические трусики-пояс Erolanta Iveta из эластичной сетки со вставками кружева, с декоративными вырезами. Имитация пояса со свободным ажурным краем. Атласный бантик спереди. Высокая посадка. Регулируемые пажи.Допускается замена кружева на аналогичное. Чулки в комплект не входят. Белые контактные трусики-пояс IVETA ML.  Белые контактные трусики-пояс IVETA ML. Модель: erolanta-741122mlw. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Эротическое белье для женщин &gt; Пояса для чулок. Цвет: белый. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -8497,7 +8517,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>78% полиамид, 22% эластан</t>
+          <t>91% полиамид, 9% эластан</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -8535,7 +8555,7 @@
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>пояс-трусики</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
@@ -8555,7 +8575,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -8571,22 +8591,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Черное соблазнительное боди с</t>
+          <t>Белые контактные трусики-пояс IVETA SM</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-19910-1299</t>
+          <t>id-28302-1299</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -8600,12 +8620,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19910/19910_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19910/19910_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19910/19910_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28302/28302_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28302/28302_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28302/28302_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28302/28302_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28302/28302_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28302/28302_5_650.jpg</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротическое боди из эластичной сетки со вставками кружева со свободным краем. Фигурные вырезы открывают верхнюю часть груди. Регулируемые бретели и застежка на спине. Допускается замена кружева на аналогичное. Черное соблазнительное боди с кружевными вставками LXL.  Черное соблазнительное боди с кружевными вставками LXL. Модель: erolanta-740031lxlb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Эротические трусики-пояс Erolanta Iveta из эластичной сетки со вставками кружева, с декоративными вырезами. Имитация пояса со свободным ажурным краем. Атласный бантик спереди. Высокая посадка. Регулируемые пажи.Допускается замена кружева на аналогичное. Чулки в комплект не входят. Белые контактные трусики-пояс IVETA SM.  Белые контактные трусики-пояс IVETA SM. Модель: erolanta-741122smw. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Эротическое белье для женщин &gt; Пояса для чулок. Цвет: белый. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -8625,7 +8645,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан</t>
+          <t>91% полиамид, 9% эластан</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -8663,7 +8683,7 @@
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>пояс-трусики</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
@@ -8699,12 +8719,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Белые контактные трусики-пояс IVETA LXL</t>
+          <t>Кружевные белые трусики с вырезом</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-28304-1299</t>
+          <t>id-23900-1299</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -8728,12 +8748,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28304/28304_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28304/28304_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28304/28304_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28304/28304_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28304/28304_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28304/28304_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23900/23900_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23900/23900_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23900/23900_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23900/23900_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23900/23900_5_650.jpg</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротические трусики-пояс Erolanta Iveta из эластичной сетки со вставками кружева, с декоративными вырезами. Имитация пояса со свободным ажурным краем. Атласный бантик спереди. Высокая посадка. Регулируемые пажи.Допускается замена кружева на аналогичное. Чулки в комплект не входят. Белые контактные трусики-пояс IVETA LXL.  Белые контактные трусики-пояс IVETA LXL. Модель: erolanta-741122lxlw. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Пояса для чулок. Цвет: белый. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Эротические трусики Agnes от Erolanta вдохновляют на воплощение в реальность желанных интимных сценариев.Эластичное кружево рисует волнующий контур бедер. Тонкие перемычки, украшенные миниатюрными кольцами и игривым атласным бантиком, расставляют интригующие акценты. Пикантный вырез в интимной зоне подогревает желание и позволяет наслаждаться игрой, не снимая при этом трусики.Окружите себя аурой чувственности с трусиками Erolanta Agnes.Допускается замена кружева на аналогичное. Кружевные белые трусики с вырезом Erolanta Agnes XL.  Кружевные белые трусики с вырезом Erolanta Agnes XL. Модель: erolanta-741292xlw. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 85% полиамид, 15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -8753,7 +8773,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>91% полиамид, 9% эластан</t>
+          <t>85% полиамид, 15% эластан</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -8791,7 +8811,7 @@
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>пояс-трусики</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
@@ -8811,7 +8831,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Топы эротик</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -8827,22 +8847,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Белые контактные трусики-пояс IVETA ML</t>
+          <t>Бралетт с кружевными лямками LXL</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-28303-1299</t>
+          <t>id-19866-1299</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -8856,12 +8876,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28303/28303_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28303/28303_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28303/28303_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28303/28303_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28303/28303_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28303/28303_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19866/19866_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19866/19866_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19866/19866_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19866/19866_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19866/19866_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19866/19866_6_650.jpg</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротические трусики-пояс Erolanta Iveta из эластичной сетки со вставками кружева, с декоративными вырезами. Имитация пояса со свободным ажурным краем. Атласный бантик спереди. Высокая посадка. Регулируемые пажи.Допускается замена кружева на аналогичное. Чулки в комплект не входят. Белые контактные трусики-пояс IVETA ML.  Белые контактные трусики-пояс IVETA ML. Модель: erolanta-741122mlw. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Эротическое белье для женщин &gt; Пояса для чулок. Цвет: белый. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Мягкий кружевной топ с декоративными вырезами и перемычками. Регулируемые бретели. Двухрядная застежка на спине. Бралетт с кружевными лямками LXL.  Бралетт с кружевными лямками LXL. Модель: erolanta-742011lxlb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Цвет: черный. Материал: сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -8881,7 +8901,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>91% полиамид, 9% эластан</t>
+          <t>сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -8919,7 +8939,7 @@
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>пояс-трусики</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
@@ -8939,7 +8959,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Топы эротик</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -8955,22 +8975,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Белые контактные трусики-пояс IVETA SM</t>
+          <t>Бралетт с кружевными лямками ML</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-28302-1299</t>
+          <t>id-19865-1299</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -8984,12 +9004,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28302/28302_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28302/28302_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28302/28302_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28302/28302_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28302/28302_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28302/28302_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19865/19865_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19865/19865_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19865/19865_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19865/19865_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19865/19865_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19865/19865_6_650.jpg</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротические трусики-пояс Erolanta Iveta из эластичной сетки со вставками кружева, с декоративными вырезами. Имитация пояса со свободным ажурным краем. Атласный бантик спереди. Высокая посадка. Регулируемые пажи.Допускается замена кружева на аналогичное. Чулки в комплект не входят. Белые контактные трусики-пояс IVETA SM.  Белые контактные трусики-пояс IVETA SM. Модель: erolanta-741122smw. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Эротическое белье для женщин &gt; Пояса для чулок. Цвет: белый. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Мягкий кружевной топ с декоративными вырезами и перемычками. Регулируемые бретели. Двухрядная застежка на спине. Бралетт с кружевными лямками ML.  Бралетт с кружевными лямками ML. Модель: erolanta-742011mlb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Цвет: черный. Материал: сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -9009,7 +9029,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>91% полиамид, 9% эластан</t>
+          <t>сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -9047,7 +9067,7 @@
       <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>пояс-трусики</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
@@ -9067,7 +9087,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Топы эротик</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -9083,22 +9103,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Кружевные белые трусики с вырезом</t>
+          <t>Бралетт-топ с кружевными вставками</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-23900-1299</t>
+          <t>id-19880-1299</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -9112,12 +9132,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23900/23900_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23900/23900_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23900/23900_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23900/23900_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23900/23900_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19880/19880_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19880/19880_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19880/19880_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19880/19880_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19880/19880_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19880/19880_5_650.jpg</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротические трусики Agnes от Erolanta вдохновляют на воплощение в реальность желанных интимных сценариев.Эластичное кружево рисует волнующий контур бедер. Тонкие перемычки, украшенные миниатюрными кольцами и игривым атласным бантиком, расставляют интригующие акценты. Пикантный вырез в интимной зоне подогревает желание и позволяет наслаждаться игрой, не снимая при этом трусики.Окружите себя аурой чувственности с трусиками Erolanta Agnes.Допускается замена кружева на аналогичное. Кружевные белые трусики с вырезом Erolanta Agnes XL.  Кружевные белые трусики с вырезом Erolanta Agnes XL. Модель: erolanta-741292xlw. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 85% полиамид, 15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Мягкий топ из эластичной сетки со вставками кружева, с декоративными вырезами. Застежка на шее. Двухрядная застежка на спине. Бралетт-топ с кружевными вставками белый ML.  Бралетт-топ с кружевными вставками белый ML. Модель: erolanta-742022mlw. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -9137,7 +9157,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>85% полиамид, 15% эластан</t>
+          <t>сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -9211,22 +9231,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Бралетт с кружевными лямками LXL</t>
+          <t>Бралетт-топ с кружевными вставками</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-19866-1299</t>
+          <t>id-19879-1299</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -9240,12 +9260,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19866/19866_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19866/19866_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19866/19866_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19866/19866_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19866/19866_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19866/19866_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19879/19879_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19879/19879_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19879/19879_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19879/19879_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19879/19879_5_650.jpg</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мягкий кружевной топ с декоративными вырезами и перемычками. Регулируемые бретели. Двухрядная застежка на спине. Бралетт с кружевными лямками LXL.  Бралетт с кружевными лямками LXL. Модель: erolanta-742011lxlb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Цвет: черный. Материал: сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Мягкий топ из эластичной сетки со вставками кружева, с декоративными вырезами. Застежка на шее. Двухрядная застежка на спине. Бралетт-топ с кружевными вставками белый SM.  Бралетт-топ с кружевными вставками белый SM. Модель: erolanta-742022smw. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -9339,12 +9359,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Бралетт с кружевными лямками ML</t>
+          <t>Бралетт удлиненный белый ML</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-19865-1299</t>
+          <t>id-19874-1299</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -9368,12 +9388,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19865/19865_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19865/19865_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19865/19865_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19865/19865_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19865/19865_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19865/19865_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19874/19874_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19874/19874_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19874/19874_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19874/19874_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19874/19874_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19874/19874_6_650.jpg</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мягкий кружевной топ с декоративными вырезами и перемычками. Регулируемые бретели. Двухрядная застежка на спине. Бралетт с кружевными лямками ML.  Бралетт с кружевными лямками ML. Модель: erolanta-742011mlb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Цвет: черный. Материал: сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Бралетт удлиненный белый ML.  Бралетт удлиненный белый ML. Модель: erolanta-742042mlw. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -9467,22 +9487,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Бралетт с кружевными лямками SM</t>
+          <t>Бралетт с перекрещиванием на груди</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-19864-1299</t>
+          <t>id-19853-1299</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -9496,12 +9516,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19864/19864_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19864/19864_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19864/19864_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19864/19864_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19864/19864_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19864/19864_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19853/19853_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19853/19853_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19853/19853_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19853/19853_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19853/19853_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19853/19853_6_650.jpg</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мягкий кружевной топ с декоративными вырезами и перемычками. Регулируемые бретели. Двухрядная застежка на спине. Бралетт с кружевными лямками SM.  Бралетт с кружевными лямками SM. Модель: erolanta-742011smb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Цвет: черный. Материал: сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Мягкий кружевной удлиненный топ с декоративными вырезами. Регулируемые бретели. Двухрядная застежка на спине. Бралетт с перекрещиванием на груди удлиненный ML.  Бралетт с перекрещиванием на груди удлиненный ML. Модель: erolanta-742051mlb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Цвет: черный. Материал: сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -9595,22 +9615,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Бралетт-топ с кружевными вставками</t>
+          <t>Бралетт с перекрещиванием на груди</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-19880-1299</t>
+          <t>id-19852-1299</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -9624,12 +9644,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19880/19880_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19880/19880_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19880/19880_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19880/19880_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19880/19880_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19880/19880_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19852/19852_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19852/19852_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19852/19852_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19852/19852_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19852/19852_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19852/19852_6_650.jpg</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мягкий топ из эластичной сетки со вставками кружева, с декоративными вырезами. Застежка на шее. Двухрядная застежка на спине. Бралетт-топ с кружевными вставками белый ML.  Бралетт-топ с кружевными вставками белый ML. Модель: erolanta-742022mlw. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Мягкий кружевной удлиненный топ с декоративными вырезами. Регулируемые бретели. Двухрядная застежка на спине. Бралетт с перекрещиванием на груди удлиненный SM.  Бралетт с перекрещиванием на груди удлиненный SM. Модель: erolanta-742051smb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Цвет: черный. Материал: сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -9707,7 +9727,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Пэстис эротик</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -9723,22 +9743,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Бралетт-топ с кружевными вставками</t>
+          <t>Пестис в форме сердец с розовыми</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-19879-1299</t>
+          <t>id-20920-1299</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -9752,12 +9772,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19879/19879_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19879/19879_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19879/19879_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19879/19879_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19879/19879_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20920/20920_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20920/20920_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20920/20920_1_650.jpg</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мягкий топ из эластичной сетки со вставками кружева, с декоративными вырезами. Застежка на шее. Двухрядная застежка на спине. Бралетт-топ с кружевными вставками белый SM.  Бралетт-топ с кружевными вставками белый SM. Модель: erolanta-742022smw. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Наклейки на соски многоразовые. Конус выполнен из полиуретана, внутри - слой силиконового геля. Декор: сатин со стразами и серебристая металлическая цепочка.Размер основания: 5 см. Длина цепочки: 28 см.Наклеивать на чистую кожу без следов косметических средств. Снимать осторожно. После использования внутреннюю сторону промыть теплой водой.Хранить, изолировав клейкий слой пленкой или приклеив к стеклянной поверхности (зеркалу).Не использовать при гиперчувствительности к силикону, нарушениях пигментации или повреждениях кожи груди. Пестис в форме сердец с розовыми стразами и цепочкой черные Erolanta.  Пестис в форме сердец с розовыми стразами и цепочкой черные Erolanta. Модель: erolanta-790054. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный, розовый. Материал: полиуретан, силиконовый гель, сатин, стразы, металл. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -9777,7 +9797,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан</t>
+          <t>полиуретан, силиконовый гель, сатин, стразы, металл</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -9835,7 +9855,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Пэстис эротик</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -9851,22 +9871,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Бралетт с перекрещиванием на груди</t>
+          <t>Пестис в виде мишени с кистями Erolanta</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-19853-1299</t>
+          <t>id-20845-1299</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -9880,12 +9900,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19853/19853_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19853/19853_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19853/19853_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19853/19853_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19853/19853_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19853/19853_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20845/20845_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20845/20845_1_650.jpg</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мягкий кружевной удлиненный топ с декоративными вырезами. Регулируемые бретели. Двухрядная застежка на спине. Бралетт с перекрещиванием на груди удлиненный ML.  Бралетт с перекрещиванием на груди удлиненный ML. Модель: erolanta-742051mlb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Цвет: черный. Материал: сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Наклейки на соски многоразовые. Конус выполнен из полиуретана, внутри - слой силиконового геля. Декор: пайетки, кисточки.Размер основания: 5 см. Длина кисти: 11 см.Наклеивать на чистую кожу без следов косметических средств. Снимать осторожно. После использования внутреннюю сторону промыть теплой водой.Хранить, изолировав клейкий слой пленкой или приклеив к стеклянной поверхности (зеркалу).Не использовать при гиперчувствительности к силикону, нарушениях пигментации или повреждениях кожи груди. Пестис в виде мишени с кистями Erolanta.  Пестис в виде мишени с кистями Erolanta. Модель: erolanta-790123. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: красный, белый. Материал: полиуретан, силиконовый гель, пайетки. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -9905,7 +9925,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан</t>
+          <t>полиуретан, силиконовый гель, пайетки</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -9979,12 +9999,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Бралетт с перекрещиванием на груди</t>
+          <t>Черное бюстье с вышивкой S</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-19852-1299</t>
+          <t>id-18649-1299</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -10008,12 +10028,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19852/19852_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19852/19852_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19852/19852_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19852/19852_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19852/19852_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19852/19852_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18649/18649_1_650.jpg</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мягкий кружевной удлиненный топ с декоративными вырезами. Регулируемые бретели. Двухрядная застежка на спине. Бралетт с перекрещиванием на груди удлиненный SM.  Бралетт с перекрещиванием на груди удлиненный SM. Модель: erolanta-742051smb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Цвет: черный. Материал: сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Черное бюстье с вышивкой S.  Черное бюстье с вышивкой S. Модель: erolanta-863007smb. Белье. Эротическое белье для женщин &gt; Корсеты. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Цвет: черный, бордовый. Материал: полиамид 100%. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -10023,17 +10043,17 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан</t>
+          <t>полиамид 100%</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -10071,7 +10091,7 @@
       <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>бюстье, стринги</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
@@ -10091,7 +10111,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Пэстис эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -10107,12 +10127,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Пестис в форме сердец со стразами и</t>
+          <t>Комбинация со стрингами</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-20846-1299</t>
+          <t>id-4215-1299</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -10136,12 +10156,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20846/20846_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20846/20846_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/4215/4215_1_650.jpg</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Наклейки на соски многоразовые. Конус выполнен из полиуретана, внутри - слой силиконового геля. Декор: сатин со стразами и серебристая металлическая цепочка.Размер основания: 5 см. Длина цепочки: 28 см.Наклеивать на чистую кожу без следов косметических средств. Снимать осторожно. После использования внутреннюю сторону промыть теплой водой.Хранить, изолировав клейкий слой пленкой или приклеив к стеклянной поверхности (зеркалу).Не использовать при гиперчувствительности к силикону, нарушениях пигментации или повреждениях кожи груди. Пестис в форме сердец со стразами и цепочкой черные Erolanta.  Пестис в форме сердец со стразами и цепочкой черные Erolanta. Модель: erolanta-790051. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный. Материал: полиуретан, силиконовый гель, сатин, стразы, металл. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Комбинация со стрингами.  Комбинация со стрингами. Модель: erolanta-920023slb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: EROLANTA. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -10151,17 +10171,17 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>полиуретан, силиконовый гель, сатин, стразы, металл</t>
+          <t>100% полиамид</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -10199,7 +10219,7 @@
       <c r="AM77" t="inlineStr"/>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>Комбинация, стринги</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
@@ -10219,13 +10239,13 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Пэстис эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>EROLANTA ELITE</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -10235,22 +10255,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Пестис в форме сердец с розовыми</t>
+          <t>Топ и юбочка белый с кружевной полоской</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-20920-1299</t>
+          <t>id-6599-1299</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -10264,17 +10284,17 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20920/20920_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20920/20920_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20920/20920_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6599/6599_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/6599/6599_2_650.jpg</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Наклейки на соски многоразовые. Конус выполнен из полиуретана, внутри - слой силиконового геля. Декор: сатин со стразами и серебристая металлическая цепочка.Размер основания: 5 см. Длина цепочки: 28 см.Наклеивать на чистую кожу без следов косметических средств. Снимать осторожно. После использования внутреннюю сторону промыть теплой водой.Хранить, изолировав клейкий слой пленкой или приклеив к стеклянной поверхности (зеркалу).Не использовать при гиперчувствительности к силикону, нарушениях пигментации или повреждениях кожи груди. Пестис в форме сердец с розовыми стразами и цепочкой черные Erolanta.  Пестис в форме сердец с розовыми стразами и цепочкой черные Erolanta. Модель: erolanta-790054. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный, розовый. Материал: полиуретан, силиконовый гель, сатин, стразы, металл. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Топ и юбочка белый с кружевной полоской ML.  Топ и юбочка белый с кружевной полоской ML. Модель: erolanta-960427mlw. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Батареек нет в комплекте. Бренд: EROLANTA ELITE. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -10287,11 +10307,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>полиуретан, силиконовый гель, сатин, стразы, металл</t>
-        </is>
-      </c>
+      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr">
         <is>
@@ -10327,7 +10343,7 @@
       <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>Топ и юбочка с кружевной полоской</t>
         </is>
       </c>
       <c r="AO78" t="inlineStr">
@@ -10347,13 +10363,13 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Пэстис эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>EROLANTA ELITE</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -10363,22 +10379,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Пестис в виде мишени с кистями Erolanta</t>
+          <t>Комбинация красная со стрингами SM</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-20845-1299</t>
+          <t>id-6615-1299</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -10392,17 +10408,17 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20845/20845_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20845/20845_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6615/6615_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/6615/6615_2_650.jpg</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Наклейки на соски многоразовые. Конус выполнен из полиуретана, внутри - слой силиконового геля. Декор: пайетки, кисточки.Размер основания: 5 см. Длина кисти: 11 см.Наклеивать на чистую кожу без следов косметических средств. Снимать осторожно. После использования внутреннюю сторону промыть теплой водой.Хранить, изолировав клейкий слой пленкой или приклеив к стеклянной поверхности (зеркалу).Не использовать при гиперчувствительности к силикону, нарушениях пигментации или повреждениях кожи груди. Пестис в виде мишени с кистями Erolanta.  Пестис в виде мишени с кистями Erolanta. Модель: erolanta-790123. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: красный, белый. Материал: полиуретан, силиконовый гель, пайетки. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Комбинация красная со стрингами SM.  Комбинация красная со стрингами SM. Модель: erolanta-962236smr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: красный. Батареек нет в комплекте. Бренд: EROLANTA ELITE. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -10415,11 +10431,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>полиуретан, силиконовый гель, пайетки</t>
-        </is>
-      </c>
+      <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr">
         <is>
@@ -10455,7 +10467,7 @@
       <c r="AM79" t="inlineStr"/>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>Комбинация, стринги</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
@@ -10475,13 +10487,13 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>EROLANTA ELITE</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -10491,12 +10503,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Черное бюстье с вышивкой S</t>
+          <t>Белая ночная сорочка со стрингами SM</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-18649-1299</t>
+          <t>id-6617-1299</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -10520,34 +10532,30 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18649/18649_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6617/6617_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/6617/6617_2_650.jpg</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черное бюстье с вышивкой S.  Черное бюстье с вышивкой S. Модель: erolanta-863007smb. Белье. Эротическое белье для женщин &gt; Корсеты. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Цвет: черный, бордовый. Материал: полиамид 100%. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Белая ночная сорочка со стрингами SM.  Белая ночная сорочка со стрингами SM. Модель: erolanta-962326smw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Батареек нет в комплекте. Бренд: EROLANTA ELITE. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>полиамид 100%</t>
-        </is>
-      </c>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr">
         <is>
@@ -10583,7 +10591,7 @@
       <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>бюстье, стринги</t>
+          <t>Сорочка, стринги</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
@@ -10603,13 +10611,13 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Головные уборы эротик</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>EROTIC FANTASY</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -10619,12 +10627,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Комбинация со стрингами</t>
+          <t>Парик из белокурых локонов</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-4215-1299</t>
+          <t>id-12632-1299</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -10648,32 +10656,32 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/4215/4215_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12632/12632_1_650.jpg</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Комбинация со стрингами.  Комбинация со стрингами. Модель: erolanta-920023slb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Парик из белокурых локонов.  Парик из белокурых локонов. Модель: eroticf-wg-17-w. Белье. Аксессуары, украшения для тела &gt; Парики. Эротическое белье для женщин &gt; Накладные парики. Цвет: блонди. Материал: искусственные волосы высокого качества. Батареек нет в комплекте. Бренд: EROTIC FANTASY. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Швейцария</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>100% полиамид</t>
+          <t>искусственные волосы высокого качества</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -10711,7 +10719,7 @@
       <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>Комбинация, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
@@ -10731,40 +10739,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>EROLANTA ELITE</t>
+          <t>EROTIC HARD</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Топ и юбочка белый с кружевной полоской</t>
+          <t>Кофейный напиток для мужчин EROTIC HARD</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-6599-1299</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-27195-1299</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
         <v>99999</v>
@@ -10776,40 +10776,44 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/6599/6599_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/6599/6599_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27195/27195_1_650.jpg</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Топ и юбочка белый с кружевной полоской ML.  Топ и юбочка белый с кружевной полоской ML. Модель: erolanta-960427mlw. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Батареек нет в комплекте. Бренд: EROLANTA ELITE. </t>
+          <t xml:space="preserve">Кофейный напиток Erotic hard MAN. Твои желания с растительными экстрактами - это 100% натуральный продукт.Рекомендуется мужчинам для:повышения либидо, сексуальности, физической выносливости, увеличения продолжительности полового акта, поддержания уровня тестостерона и репродуктивной функции, улучшения настроения, работоспособности, уменьшения депрессивных состояний.Кроме того, Erotic hard MAN. Твои желания рекомендуется в качестве источника, минералов, микроэлементов, антиоксидантов, а особенно витамина Е и цинка, аминокислот и фитонутриентов. Эти необходимые элементы поддерживают сексуальную функцию, гормональный баланс и сохраняют мужское здоровье.Кофейный напиток благодаря своему составу оказывает положительное воздействие не только на мочеполовую, но и на центральную нервную, сердечно-сосудистую и эндокринную системы, что способствует общему омоложению организма.У напитка яркий, терпкий вкус насыщенного черного кофе с горчинкой цикория и тонкими растительными нотками. 6 растительных афродизиаков для великолепной потенции: эврикома длиннолистная (тонгкат али), муира-пуама, заманиха, красный корнень, левзея сафроловидная, имбирь молотый.Кофейный напиток Erotic hard MAN. Твои желания - всегда высшая лига!Способ применения: насыпать в чашку 1-2 чайные ложки кофе, залить кипятком, дать настояться не менее 3-5 минут, добавить по вашему вкусу сахар, сливки и подарить себе удовольствие от каждого глотка. Выпейте напиток за 15-30 минут до интимной близости.Состав: Кофе черный молотый средней обжарки Арабика.Робос, цикорий порошкообразный, кофейный напиток (ячмень), экстракты: эврикомы длиннолистной (тонкат али), мури-пуамы, заманихи, красного корня, левзеи сафроловидной, корень имбиря молотый, антислеживатель (диоксид кремния)Противопоказания: бессонница, индивидуальная непереносимость, повышенная нервная возбудимость. Кофейный напиток для мужчин EROTIC HARD (100 г).  Кофейный напиток для мужчин EROTIC HARD (100 г). Модель: erotich-91. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: EROTIC HARD. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr"/>
+          <t>100 г</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>100 г</t>
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
@@ -10835,7 +10839,7 @@
       <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>Топ и юбочка с кружевной полоской</t>
+          <t>2 пакетика по 50 г</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
@@ -10855,40 +10859,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>EROLANTA ELITE</t>
+          <t>EROTICON</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Комбинация красная со стрингами SM</t>
+          <t>Анальная пробка елочка гелевая синяя</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-6615-1299</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-18951-1299</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>99999</v>
@@ -10900,30 +10896,34 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/6615/6615_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/6615/6615_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18951/18951_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18951/18951_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18951/18951_3_650.jpg</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Комбинация красная со стрингами SM.  Комбинация красная со стрингами SM. Модель: erolanta-962236smr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: красный. Батареек нет в комплекте. Бренд: EROLANTA ELITE. </t>
+          <t xml:space="preserve">.Анальная пробка елочка гелевая синяя.  Анальная пробка елочка гелевая синяя. Модель: eroticon-30161. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: прозрачно-синий. Материал: TPR (гель). Батареек нет в комплекте. Бренд: EROTICON. </t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R83" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>TPR (гель)</t>
+        </is>
+      </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr">
         <is>
@@ -10938,15 +10938,25 @@
       </c>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
-      <c r="AA83" t="inlineStr"/>
+      <c r="Y83" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>18</v>
+      </c>
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
       <c r="AD83" t="inlineStr"/>
       <c r="AE83" t="inlineStr"/>
-      <c r="AF83" t="inlineStr"/>
-      <c r="AG83" t="inlineStr"/>
+      <c r="AF83" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>4.5</v>
+      </c>
       <c r="AH83" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10959,7 +10969,7 @@
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>Комбинация, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -10979,40 +10989,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>EROLANTA ELITE</t>
+          <t>EROTICON</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Белая ночная сорочка со стрингами SM</t>
+          <t>Гибкий анальный стимулятор Honey Dolls</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-6617-1299</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-11749-1299</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
         <v>99999</v>
@@ -11024,30 +11026,34 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/6617/6617_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/6617/6617_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/11749/11749_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/11749/11749_1_650.jpg</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Белая ночная сорочка со стрингами SM.  Белая ночная сорочка со стрингами SM. Модель: erolanta-962326smw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Батареек нет в комплекте. Бренд: EROLANTA ELITE. </t>
+          <t xml:space="preserve">.Гибкий анальный стимулятор Honey Dolls.  Гибкий анальный стимулятор Honey Dolls. Модель: eroticon-30165. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: темно-фиолетовый. Материал: гибкий ПВХ. Батареек нет в комплекте. Бренд: EROTICON. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>гибкий ПВХ</t>
+        </is>
+      </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr">
         <is>
@@ -11062,15 +11068,29 @@
       </c>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr"/>
+      <c r="Y84" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>18</v>
+      </c>
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
-      <c r="AD84" t="inlineStr"/>
-      <c r="AE84" t="inlineStr"/>
-      <c r="AF84" t="inlineStr"/>
-      <c r="AG84" t="inlineStr"/>
+      <c r="AD84" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>2.5</v>
+      </c>
       <c r="AH84" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11083,7 +11103,7 @@
       <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>Сорочка, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -11103,40 +11123,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Головные уборы эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>EROTIC FANTASY</t>
+          <t>EROTICON</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Парик из белокурых локонов</t>
+          <t>Гель-смазка возбуждающая "Шпанская</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-12632-1299</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-19453-1299</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>99999</v>
@@ -11148,44 +11160,44 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12632/12632_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19453/19453_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19453/19453_2_650.jpg</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Парик из белокурых локонов.  Парик из белокурых локонов. Модель: eroticf-wg-17-w. Белье. Аксессуары, украшения для тела &gt; Парики. Эротическое белье для женщин &gt; Накладные парики. Цвет: блонди. Материал: искусственные волосы высокого качества. Батареек нет в комплекте. Бренд: EROTIC FANTASY. </t>
+          <t xml:space="preserve">Шпанская мушка - один из самых древних и действенных афродизиаков, усиливающих и продлевающих возбуждение. Уникальная формула смазки обладает приятным возбуждающим эффектом, улучшает эрекцию, увеличивает продолжительность полового акта. Оказывает благотворное воздействие и на мужчин и на женщин. Женьшень в составе смазки действует как стимулятор, ускоряет процессы метаболизма и увеличивает приток крови к гениталиям. Женьшень - великолепный афродизиак и превосходное профилактическое средство, препятствующее возникновению и развитию множества заболеваний. Гель-смазка возбуждающая Шпанская Мушка на водной основе (50 мл).  Гель-смазка возбуждающая "Шпанская Мушка" на водной основе (50 мл). Модель: eroticon-34032. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Цвет: прозрачный. Батареек нет в комплекте. Бренд: EROTICON. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Швейцария</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>искусственные волосы высокого качества</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr"/>
+          <t>50 мл</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W85" t="inlineStr"/>
@@ -11211,7 +11223,7 @@
       <c r="AM85" t="inlineStr"/>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>Состав: вода очищенная, глицерин, полиэтиленгликоль низкомолекулярный, экстракт женьшеня, гидроксиэтилцеллюлоза, метил-, этил-, пропилпарабены в 1,3 бутиленгликоле, метилникотинат, ЭДТА</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
@@ -11231,28 +11243,28 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>EROTIC HARD</t>
+          <t>EROTIST</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Кофейный напиток для мужчин EROTIC HARD</t>
+          <t>Охлаждающий лубрикант на водной основе</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-27195-1299</t>
+          <t>id-27800-1299</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -11268,12 +11280,12 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27195/27195_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27800/27800_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27800/27800_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27800/27800_3_650.jpg</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кофейный напиток Erotic hard MAN. Твои желания с растительными экстрактами - это 100% натуральный продукт.Рекомендуется мужчинам для:повышения либидо, сексуальности, физической выносливости, увеличения продолжительности полового акта, поддержания уровня тестостерона и репродуктивной функции, улучшения настроения, работоспособности, уменьшения депрессивных состояний.Кроме того, Erotic hard MAN. Твои желания рекомендуется в качестве источника, минералов, микроэлементов, антиоксидантов, а особенно витамина Е и цинка, аминокислот и фитонутриентов. Эти необходимые элементы поддерживают сексуальную функцию, гормональный баланс и сохраняют мужское здоровье.Кофейный напиток благодаря своему составу оказывает положительное воздействие не только на мочеполовую, но и на центральную нервную, сердечно-сосудистую и эндокринную системы, что способствует общему омоложению организма.У напитка яркий, терпкий вкус насыщенного черного кофе с горчинкой цикория и тонкими растительными нотками. 6 растительных афродизиаков для великолепной потенции: эврикома длиннолистная (тонгкат али), муира-пуама, заманиха, красный корнень, левзея сафроловидная, имбирь молотый.Кофейный напиток Erotic hard MAN. Твои желания - всегда высшая лига!Способ применения: насыпать в чашку 1-2 чайные ложки кофе, залить кипятком, дать настояться не менее 3-5 минут, добавить по вашему вкусу сахар, сливки и подарить себе удовольствие от каждого глотка. Выпейте напиток за 15-30 минут до интимной близости.Состав: Кофе черный молотый средней обжарки Арабика.Робос, цикорий порошкообразный, кофейный напиток (ячмень), экстракты: эврикомы длиннолистной (тонкат али), мури-пуамы, заманихи, красного корня, левзеи сафроловидной, корень имбиря молотый, антислеживатель (диоксид кремния)Противопоказания: бессонница, индивидуальная непереносимость, повышенная нервная возбудимость. Кофейный напиток для мужчин EROTIC HARD (100 г).  Кофейный напиток для мужчин EROTIC HARD (100 г). Модель: erotich-91. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: EROTIC HARD. </t>
+          <t xml:space="preserve">Лубрикант на водной основе Erotist Cooling поможет проводить с партнёром как можно больше времени, ведь лёгкий охлаждающий эффект этого лубриканта продлевает и усиливает наслаждение от близости. Да-да! Половой акт становится продолжительнее, а ощущения острее. Кажется, будто к интимной игре присоединился шаловливый ветерок. А усиливает удовольствие невесомая текстура лубриканта. Она дарит максимально комфортные ощущения даже при играх пожестче. Лубрикант Erotist Cooling имеет водную основу: он гипоаллергенен, совместим с презервативами и игрушками для взрослых, не оставляет следов и легко смывается водой. Охлаждающий лубрикант на водной основе Erotist Cooling (250 мл).  Охлаждающий лубрикант на водной основе Erotist Cooling (250 мл). Модель: erotist-541606. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EROTIST. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -11295,17 +11307,17 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t>250 мл</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>250</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>100 г</t>
+          <t>250 мл</t>
         </is>
       </c>
       <c r="W86" t="inlineStr"/>
@@ -11331,7 +11343,7 @@
       <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>2 пакетика по 50 г</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
@@ -11351,28 +11363,28 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вакуумные помпы эротик</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>EROTICON</t>
+          <t>EROZON</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Анальная пробка елочка гелевая синяя</t>
+          <t>Вакуумная помпа для клитора с поршневым</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-18951-1299</t>
+          <t>id-27808-1299</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -11388,12 +11400,12 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18951/18951_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18951/18951_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18951/18951_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27808/27808_4_650.jpg</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Анальная пробка елочка гелевая синяя.  Анальная пробка елочка гелевая синяя. Модель: eroticon-30161. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: прозрачно-синий. Материал: TPR (гель). Батареек нет в комплекте. Бренд: EROTICON. </t>
+          <t xml:space="preserve">Вакуумная помпа, предназначенная для стимуляции области половых губ и клитора. За счет вакуумного массажа усиливается естественный приток крови к стимулируемой зоне и соответственно увеличивается ее чувствительность. Помпа состоит из прозрачной чаши эргономичной формы, гибкого шланга, небольшого поршневого насоса.Применение:Помпа создает вакуум вокруг области клитора и половых губ, а затем усиливает приток крови, делая вагинальную зону набухшей и максимально чувствительной к каждому касанию.Если помпу использовать регулярно, то увеличится выделение естественной смазки, что будет положительно влиять на микрофлору влагалища и улучшать скольжение во время секса. Вакуумная помпа для клитора с поршневым механизмом Pussy Pump Erozon.  Вакуумная помпа для клитора с поршневым механизмом Pussy Pump Erozon. Модель: erozon-pw003-1. Секс-игрушки. Вакуумные помпы &gt; Помпы женские. Цвет: прозрачный с черным и синим. Материал: ABS пластик, силикон. Батареек нет в комплекте. Бренд: EROZON. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -11403,17 +11415,17 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>TPR (гель)</t>
+          <t>ABS пластик, силикон</t>
         </is>
       </c>
       <c r="S87" t="inlineStr"/>
@@ -11428,27 +11440,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
+      <c r="W87" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X87" t="n">
+        <v>9.35</v>
+      </c>
       <c r="Y87" t="n">
-        <v>19.8</v>
+        <v>12.65</v>
       </c>
       <c r="Z87" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AA87" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr"/>
-      <c r="AF87" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
       <c r="AH87" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11481,32 +11493,40 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>EROTICON</t>
+          <t>FIORE</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Гибкий анальный стимулятор Honey Dolls</t>
+          <t>Черные лайкровые чулки под пояс Romance</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-11749-1299</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+          <t>id-12664-1299</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>99999</v>
@@ -11518,32 +11538,32 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11749/11749_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/11749/11749_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12664/12664_1_650.jpg</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Гибкий анальный стимулятор Honey Dolls.  Гибкий анальный стимулятор Honey Dolls. Модель: eroticon-30165. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: темно-фиолетовый. Материал: гибкий ПВХ. Батареек нет в комплекте. Бренд: EROTICON. </t>
+          <t xml:space="preserve">Чувственные чулки с красивым верхом с рисунком. Шикарная матовая отделка и незримо усиленная часть пальца ноги для элегантности. Черные лайкровые чулки под пояс Romance на резинке 20 Den 4 (L).  Черные лайкровые чулки под пояс Romance на резинке 20 Den 4 (L). Модель: fiore-404019lb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 86% полиамид, 14% эластан. Батареек нет в комплекте. Бренд: FIORE. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>гибкий ПВХ</t>
+          <t>86% полиамид, 14% эластан</t>
         </is>
       </c>
       <c r="S88" t="inlineStr"/>
@@ -11560,29 +11580,15 @@
       </c>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>18</v>
-      </c>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
-      <c r="AD88" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr"/>
+      <c r="AG88" t="inlineStr"/>
       <c r="AH88" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11615,28 +11621,28 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>EROTICON</t>
+          <t>ФИТО ПРО</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Гель-смазка возбуждающая "Шпанская</t>
+          <t>Капсулы для увеличения эрекции ВИГОР</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-19453-1299</t>
+          <t>id-28314-1299</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -11652,12 +11658,12 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19453/19453_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19453/19453_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28314/28314_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28314/28314_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28314/28314_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28314/28314_4_650.jpg</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Шпанская мушка - один из самых древних и действенных афродизиаков, усиливающих и продлевающих возбуждение. Уникальная формула смазки обладает приятным возбуждающим эффектом, улучшает эрекцию, увеличивает продолжительность полового акта. Оказывает благотворное воздействие и на мужчин и на женщин. Женьшень в составе смазки действует как стимулятор, ускоряет процессы метаболизма и увеличивает приток крови к гениталиям. Женьшень - великолепный афродизиак и превосходное профилактическое средство, препятствующее возникновению и развитию множества заболеваний. Гель-смазка возбуждающая Шпанская Мушка на водной основе (50 мл).  Гель-смазка возбуждающая "Шпанская Мушка" на водной основе (50 мл). Модель: eroticon-34032. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Цвет: прозрачный. Батареек нет в комплекте. Бренд: EROTICON. </t>
+          <t xml:space="preserve">ВИГОР АЛИ + препарат для повышения потенции. Препарат действует достаточно долго, поэтому Вы легко можете принять его за 1 час до предполагаемого интима, Вам полезно будет знать, что данное средство можно сочетать с алкоголем (разумеется, в разумных пределах) Препарат ВИГОР АЛИ + не вызывает зависимости и привыкания, не имеет побочных эффектов. Действие: капсулы ВИГОР АЛИ + быстро усваиваются организмом, эффект наступает через 1 час после применения. Действие капсул ВИГОР АЛИ + эффективно стимулируют потенцию, улучшают кровообращение в органах малого таза, повышают сексуальное влечение.Рекомендации по применению: капсулы ВИГОР АЛИ + рекомендуется принимать как здоровым, так и страдающим нарушением эректильных функций, снижением потенции, синдромом хронической усталости. Взрослым принимать по 1 капсуле в день за 1 час до сексуальной активности, действие препарата до 72 часовБАД, НЕ ЯВЛЯЕТСЯ ЛЕКАРСТВОМ. Капсулы для увеличения эрекции ВИГОР АЛИ + (6 шт).  Капсулы для увеличения эрекции ВИГОР АЛИ + (6 шт). Модель: fito-85-1. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Батареек нет в комплекте. Бренд: ФИТО ПРО. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -11679,17 +11685,13 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W89" t="inlineStr"/>
@@ -11715,7 +11717,7 @@
       <c r="AM89" t="inlineStr"/>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>Состав: вода очищенная, глицерин, полиэтиленгликоль низкомолекулярный, экстракт женьшеня, гидроксиэтилцеллюлоза, метил-, этил-, пропилпарабены в 1,3 бутиленгликоле, метилникотинат, ЭДТА</t>
+          <t>6 капсул</t>
         </is>
       </c>
       <c r="AO89" t="inlineStr">
@@ -11735,28 +11737,28 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>EROTICON</t>
+          <t>FLESHNASH</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Орально-вагинальная смазка на водной</t>
+          <t>Двусторонний мастурбатор копия вагины</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-23036-1299</t>
+          <t>id-24036-1299</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -11772,17 +11774,17 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23036/23036_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_13_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_4_650.jpg</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ярко выраженный вкус и аромат малины усиливает чувственность и сексуальные желания. Хорошо увлажняет ткани слизистой, обеспечивая комфортное скольжение. Создана для пар, ищущих разнообразие в сексе. Не пачкает бельё и одежду, легко смывается водой. Совместима с презервативом.Способ применения: нанести тонким слоем на половые органы и эрогенные зоны во время прелюдии. Орально-вагинальная смазка на водной основе с ароматом малины Eroticon (30 мл).  Орально-вагинальная смазка на водной основе с ароматом малины Eroticon (30 мл). Модель: eroticon-34042. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Цвет: розовый. Батареек нет в комплекте. Бренд: EROTICON. </t>
+          <t xml:space="preserve">Ты любишь Элли Брилсен? Это та, что Ангелина Дорошенкова.Темноволосая красотка с натуральной грудью, любительница двойного проникновения и группового секса. Посмотри, если не видел)А потом возьми этот мастурбатор и представь себя на месте её партнера.Это точная копия вагины и попки Элли. Трахай её так, как тебе хочется. Жестко, медленно, быстро, параллельно вставляя в анус свой палец  отпусти свою фантазию и воплоти её в жизнь!Мастурбатор сделан в виде пластикового тубуса, внутри которого двухсторонний реалистичный рукав из БИО-кожи. Внутренний рельеф покрыт нежными рёбрами и шишечками. И он очень эффективен в вопросе достижения оргазма. Постарайся быть выносливым)Впрочем, с помощью мастурбатора ты можешь не только снимать напряжение, но и тренировать свою выдержку.На ощупь вагина и попка такие же, как настоящие. И даже лучше! Ведь ты можешь делать с ними, что захочешь.Главное не забудь про смазку. С ней секс будет намного круче.У Флешнаш целая коллекция мастурбаторов-копий других знаменитых девочек.Двусторонний мастурбатор (копия вагины и ануса Ангелины Дорошенковой).  Двусторонний мастурбатор (копия вагины и ануса Ангелины Дорошенковой). Модель: fleshnash-fnd2019. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы Fleshlight, в колбах. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный. Материал: Био кожа (вторая кожа). Батареек нет в комплекте. Бренд: FLESHNASH. </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -11795,34 +11797,44 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R90" t="inlineStr"/>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Био кожа (вторая кожа)</t>
+        </is>
+      </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
-      <c r="AA90" t="inlineStr"/>
+      <c r="Y90" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>22</v>
+      </c>
       <c r="AB90" t="inlineStr"/>
       <c r="AC90" t="inlineStr"/>
       <c r="AD90" t="inlineStr"/>
       <c r="AE90" t="inlineStr"/>
-      <c r="AF90" t="inlineStr"/>
-      <c r="AG90" t="inlineStr"/>
+      <c r="AF90" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>8</v>
+      </c>
       <c r="AH90" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11855,28 +11867,28 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>EROTICON</t>
+          <t>FLESHNASH</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Анальная гель-смазка Anal BDSM на</t>
+          <t>Мастурбатор Флешнаш с эффектом отсоса</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-23035-1299</t>
+          <t>id-23596-1299</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -11892,17 +11904,17 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23035/23035_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23596/23596_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23596/23596_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23596/23596_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23596/23596_2_650.jpg</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интимная смазка EROTICON BDSM изготовлена на основе анальной смазки с добавлением дополнительного скользящего эффекта. БДСМ практики предполагают различного рода анальные эксперименты с применением механических расширителей, стимуляторов крупных размеров, использование изделий из металла и твердой термопластичной резины, а так же приборов для принудительного оргазма. В большинстве подобных практик необходима смазка с формулой, предполагающей усиленный скользящий эффект, обеспечивающий безболезненное проникновение.Подходит для начинающих.Совместима с механическими стимуляторами и анальными расширителями.Способ применения: нанести тонким слоем на анальное кольцо и на пенис непосредственно перед половым актом. Состав указан на упаковке. Анальная гель-смазка Anal BDSM на водной основе (30 мл).  Анальная гель-смазка Anal BDSM на водной основе (30 мл). Модель: eroticon-34043. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Цвет: прозрачный. Батареек нет в комплекте. Бренд: EROTICON. </t>
+          <t xml:space="preserve">Fleshnash Fleshy Touch - мастурбатор с эффектом вакуума! Создает ощущение настоящего отсоса!Новая уникальная серия мастурбаторов от бренда Флешнаш! В разработке материала и внутренней текстуры использованы японские технологии и инженерия. Каждый мастурбатор из серии отличается уникальным внутренним рельефом.Очень мягкий внутри. Мастурбатор выполнен из очень нежного материала - силикона, который буквально будет повторять форму твоего члена. Fleshy Touch собрал в себе все лучшие качества, чтобы доставлять максимальное удовольствие своему обладателю:  -  Удивительное всасывание  -  Удобный уход  -  Уникальный рельеф  -  Безопасный для кожи материалВнутренний рукав наполнен многофункциональными выпуклостями и уникальным рельефом. Начинается все с узкой дырочки, которая предвещает настоящий бум страсти. Затем твоего дружка встречает отсек с ребристым и круглым рельефом. А затем самое интересное!Узкий длинный тоннель, который закручивается и сливается воедино с твоим телом, тебе буквально придется проталкивать член по этому ребристому каналу. Рельеф выполнен таким образом, чтобы стимулировать не только основной ствол члена. Ты сможешь ласкать уздечку полового члена, или даже головку!Сняв наклейку с основания игрушки, ты увидишь дырочку - это специальный клапан. Закрыв его пальцем, мы получаем супер мощный вакуум, как при минете! А открыв, даем воздуху наполнять мастурбатор, придавая очень мощный контраст. Ты можешь комбинировать стимуляцию, открывая и закрывая вакуум.Ухаживать за мастурбаторами Флешнаш очень просто! Ты достаешь мягкий рукав из пластиковой тубы, моешь его в теплой водичке и сушишь. А затем просто помещаешь его обратно, где он будет ждать следующего раза.Fleshy Touch - стильный, качественный и очень крутой мастурбатор. Ты просто обязан его попробовать!.Мастурбатор Флешнаш с эффектом отсоса Fleshy Touch.  Мастурбатор Флешнаш с эффектом отсоса Fleshy Touch. Модель: fleshnash-fnf9016. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы Fleshlight, в колбах. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: белый. Материал: мягкий силикон (имитация кожи человека), пластик. Батареек нет в комплекте. Бренд: FLESHNASH. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -11915,34 +11927,44 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>мягкий силикон (имитация кожи человека), пластик</t>
+        </is>
+      </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr"/>
+      <c r="Y91" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>16</v>
+      </c>
       <c r="AB91" t="inlineStr"/>
       <c r="AC91" t="inlineStr"/>
       <c r="AD91" t="inlineStr"/>
       <c r="AE91" t="inlineStr"/>
-      <c r="AF91" t="inlineStr"/>
-      <c r="AG91" t="inlineStr"/>
+      <c r="AF91" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>6.5</v>
+      </c>
       <c r="AH91" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11955,7 +11977,7 @@
       <c r="AM91" t="inlineStr"/>
       <c r="AN91" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>мастурбатор в колбе, пробник смазки</t>
         </is>
       </c>
       <c r="AO91" t="inlineStr">
@@ -11975,13 +11997,13 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>EROTICON</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -11991,12 +12013,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Гель-смазка SQUIRT на водной основе с</t>
+          <t>Перезаряжаемый черный вибратор</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-23039-1299</t>
+          <t>id-28290-1299</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -12012,57 +12034,71 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23039/23039_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28290/28290_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28290/28290_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28290/28290_3_650.jpg</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интимная смазка EROTICON SQUIRT изготовлена на основе активной (усиленной) рецептуры с провитамином B5. Практика достижения струйного оргазма предполагает активную стимуляцию точки G с риском нанесения микротравм и растяжений слизистой оболочки. Провитамин B5 смягчает кожу, ускоряет процессы регенерации и обладает заживляющим эффектом. Состав смазки обеспечивает безболезненное проникновение и длительное скольжение, необходимые при данной практике.Подходит для начинающих.Совместима с механическими стимуляторами и средствами барьерной контрацепции.Способ применения: нанести тонким слоем на половые органы непосредственно перед половым актом. Гель-смазка SQUIRT на водной основе с провитамином B5 (30 мл).  Гель-смазка SQUIRT на водной основе с провитамином B5 (30 мл). Модель: eroticon-34044. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Цвет: прозрачный. Батареек нет в комплекте. Бренд: EROTICON. </t>
+          <t xml:space="preserve">Стильный черный вибратор с золотыми вставками Fredericks удовлетворит даже самых искушенных, начиная от своего внешнего вида до функционала! Перезаряжаемый вибратор с оригинальным рельефом имеет 10 различных функций вибраций. Сделан массажер из мягкого силикона с бархатистой поверхностью, что максимально приятно ощущается слизистыми. Вибратор подойдет как для стимуляции вагины, так и ануса.Заряжается массажер от usb, время зарядки составляет 2 часа, время работы до 1,5 часов. Вибратор имеет travel-lock (защиту от внезапного включения) для этого задержите кнопку включения на массажере на 3 секунды дожидаясь подсветки, а за тем переключайте режимы соседней кнопкой. Перезаряжаемый черный вибратор Fredericks (10 режимов).  Перезаряжаемый черный вибратор Fredericks (10 режимов). Модель: fredericks-010. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Цвет: черный с золотым. Материал: силикон двойной плотности. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R92" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>силикон двойной плотности</t>
+        </is>
+      </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr">
         <is>
-          <t>30 мл</t>
-        </is>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
-      <c r="AA92" t="inlineStr"/>
+      <c r="Y92" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>21.5</v>
+      </c>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
-      <c r="AD92" t="inlineStr"/>
-      <c r="AE92" t="inlineStr"/>
-      <c r="AF92" t="inlineStr"/>
-      <c r="AG92" t="inlineStr"/>
+      <c r="AD92" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>3.2</v>
+      </c>
       <c r="AH92" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12075,7 +12111,7 @@
       <c r="AM92" t="inlineStr"/>
       <c r="AN92" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибратор, зарядное USB-устройство, мешочек для хранения, комплект для упаковки (оберточная бумага, атласная лента, подарочная открытка в конверте)</t>
         </is>
       </c>
       <c r="AO92" t="inlineStr">
@@ -12095,28 +12131,28 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>EROTIST</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Лубрикант ароматизированный Erotist</t>
+          <t>Перезаряжаемый вибратор для точки G с</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-17472-1299</t>
+          <t>id-28291-1299</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -12132,57 +12168,71 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17472/17472_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28291/28291_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28291/28291_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28291/28291_3_650.jpg</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Для любителей сладкой спелой клубнички, лакомиться которой можно круглый год, изобретен потрясающий клубничный лубрикант на водной основе Erotist Strawberry. Всё, что понадобится для приготовления вкусной интимной встречи, так это пара капель этого лубриканта и щепотка пикантных фантазий. Смешиваем и наслаждаемся! Такой десерт понравится не только сладкоежкам. Лубрикант Erotist Strawberry имеет водную основу, гипоаллергенен, совместим с презервативами, не оставляет следов и легко смывается водой. Не съедобен. Лубрикант ароматизированный Erotist Strawberry на водной основе (100 мл).  Лубрикант ароматизированный Erotist Strawberry на водной основе (100 мл). Модель: erotist-541405. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EROTIST. </t>
+          <t xml:space="preserve">Стильный черный вибратор с золотыми вставками Fredericks удовлетворит даже самых искушенных, начиная от своего внешнего вида до функционала! Уникальный вибромассажер-кролик с функцией подогрева! Вибрация основной части, клиторального стимулятора и разогревающий эффект регулируются независимо друг от друга и могут использоваться как вместе, так и по отдельности. Подогрев происходит за 4 минуты (плюс.минус 20 секунд) до температуры в 55 C (плюс.минус 2 градуса). Перезаряжаемый вибратор с  имеет 10 различных функций вибраций. Сделан стимулятор из гигиеничного силикона с бархатистой поверхностью, что максимально приятно ощущается слизистыми. Заряжается массажер от usb, время зарядки составляет 2 часа, время работы до 40 минут. Вибратор имеет travel-lock (защиту от внезапного включения) для этого задержите нижнюю кнопку на массажере на 3 секунды дожидаясь подсветки. Кратковременное этой же кнопки переключает режимы клиторального стимулятора, центральная кнопка отвечает за вибрацию основного (вагинального) стимулятора, а верхняя кнопка с обозначением пламени включает подогрев игрушки. Перезаряжаемый вибратор для точки G с подогревом Warming Rabbit Vibrator (10 режимов).  Перезаряжаемый вибратор для точки G с</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+        </is>
+      </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr">
         <is>
-          <t>100 мл</t>
-        </is>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
-      <c r="AA93" t="inlineStr"/>
+      <c r="Y93" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>22</v>
+      </c>
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
-      <c r="AD93" t="inlineStr"/>
-      <c r="AE93" t="inlineStr"/>
-      <c r="AF93" t="inlineStr"/>
-      <c r="AG93" t="inlineStr"/>
+      <c r="AD93" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>3.6</v>
+      </c>
       <c r="AH93" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12195,7 +12245,7 @@
       <c r="AM93" t="inlineStr"/>
       <c r="AN93" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибратор, зарядное USB-устройство, мешочек для хранения, комплект для упаковки (оберточная бумага, атласная лента, подарочная открытка в конверте)</t>
         </is>
       </c>
       <c r="AO93" t="inlineStr">
@@ -12215,13 +12265,13 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>EROTIST</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -12231,12 +12281,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Лубрикант на силиконовой основе Erotist</t>
+          <t>Небольшая анальная втулка Frederick</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-20075-1299</t>
+          <t>id-28299-1299</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -12252,57 +12302,71 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20075/20075_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28299/28299_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28299/28299_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28299/28299_3_650.jpg</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Секс на завтрак, обед и ужин? Легко - с лубрикантом Erotist Neutral. Его формула на силиконовой основе обеспечивает долгое и приятное скольжение, а также защищает от микротрещин. Лубрикант обладает нейтральным запахом и не оставляет следов на одежде. Он даже презервативам не вредит. Секс с этим лубрикантом будет таким, как хочется. Лубрикант Erotist Neutral имеет силиконовую основу: он гипоаллергенен, совместим с презервативами, не оставляет следов и легко смывается водой. Не совместим с силиконовыми секс-игрушками. Лубрикант на силиконовой основе Erotist Neutral Silicone (100 мл).  Лубрикант на силиконовой основе Erotist Neutral Silicone (100 мл). Модель: erotist-541420. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Батареек нет в комплекте. Бренд: EROTIST. </t>
+          <t xml:space="preserve">Черная мини-пробка для анальной стимуляции из бархатистого силикона. Упругий стимулятор подойдет тем, кто любит деликатное проникновение. Небольшая анальная втулка Frederick.  Небольшая анальная втулка Frederick. Модель: fredericks-2004. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R94" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
-          <t>100 мл</t>
-        </is>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
-      <c r="AA94" t="inlineStr"/>
+      <c r="Y94" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>8.699999999999999</v>
+      </c>
       <c r="AB94" t="inlineStr"/>
       <c r="AC94" t="inlineStr"/>
-      <c r="AD94" t="inlineStr"/>
-      <c r="AE94" t="inlineStr"/>
-      <c r="AF94" t="inlineStr"/>
-      <c r="AG94" t="inlineStr"/>
+      <c r="AD94" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>2.7</v>
+      </c>
       <c r="AH94" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12335,13 +12399,13 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>EROTIST</t>
+          <t>FREEDOM</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -12351,12 +12415,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Гель для сужения влагалища Erotist</t>
+          <t>Мягкие тампоны для любви во время</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-17479-1299</t>
+          <t>id-21781-1299</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -12372,44 +12436,48 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17479/17479_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21781/21781_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21781/21781_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21781/21781_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21781/21781_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21781/21781_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21781/21781_2_650.jpg</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Как почувствовать весеннее прикосновение в любое время года? С помощью геля для женщин Erotist Spring Touch на водной основе. Этот гель создан, чтобы каждый день близость с партнёром радовала нежностью, похожей на поцелуй весны. Натуральные компоненты деликатно подчёркивают естественный аромат тела. Концентрация геля дарит шелковистое скольжение. Но самое главное - Erotist Spring Touch обладает сжимающим эффектом, который увеличивает тонус мышц влагалища. Тесный контакт, усиливающий степень эйфории, гарантирован!.Гель для сужения влагалища Erotist Spring Touch (50 мл).  Гель для сужения влагалища Erotist Spring Touch (50 мл). Модель: erotist-541430. Косметика, препараты. Смазки, косметика &gt; Сужение влагалища. Батареек нет в комплекте. Бренд: EROTIST. </t>
+          <t xml:space="preserve">FREEDOM - тампоны нового поколения для современных женщин!  удобная форма в виде сердечка  специальный воздушный материал  легкость введения и извлечения  легко адаптируются под форму тела  не ощущаются внутри  одобрены гинекологами и протестированы дерматологами  подходят для небольших и средних выделений  произведены в Германии Тампоны FREEDOM обеспечивают не только надежную защиту от выделений в критические дни, но и дают возможность не отказываться от своих обычных увлечений и планов! Заниматься любовью, спортом, плавать в бассейне, танцевать, встречаться с друзьями в СПА или отдыхать на пляже  с FREEDOM все это возможно даже в критические дни!.Мягкие тампоны для любви во время месячных FREEDOM MINI Sport, Spa, Love, Swim (3 шт).  Мягкие тампоны для любви во время месячных FREEDOM MINI Sport, Spa, Love, Swim (3 шт). Модель: freedom-12231. Косметика, препараты. Тампоны, чаши &gt; Мягкие тампоны. Цвет: розовый. Материал: гигиеничный полиуретан. Батареек нет в комплекте. Бренд: FREEDOM. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R95" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>гигиеничный полиуретан</t>
+        </is>
+      </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve">5,5 , * 4,5 </t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5,5 , * 4,5</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve">5,5 , * 4,5 </t>
         </is>
       </c>
       <c r="W95" t="inlineStr"/>
@@ -12435,7 +12503,7 @@
       <c r="AM95" t="inlineStr"/>
       <c r="AN95" t="inlineStr">
         <is>
-          <t>obj=50</t>
+          <t>3 шт</t>
         </is>
       </c>
       <c r="AO95" t="inlineStr">
@@ -12455,28 +12523,28 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>EROTIST</t>
+          <t>GANZO</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Охлаждающий лубрикант на водной основе</t>
+          <t>Презервативы GANZO RIBS No3 Ребристые</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-27800-1299</t>
+          <t>id-16523-1299</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -12492,51 +12560,57 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27800/27800_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27800/27800_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27800/27800_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16523/16523_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16523/16523_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16523/16523_3_650.jpg</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лубрикант на водной основе Erotist Cooling поможет проводить с партнёром как можно больше времени, ведь лёгкий охлаждающий эффект этого лубриканта продлевает и усиливает наслаждение от близости. Да-да! Половой акт становится продолжительнее, а ощущения острее. Кажется, будто к интимной игре присоединился шаловливый ветерок. А усиливает удовольствие невесомая текстура лубриканта. Она дарит максимально комфортные ощущения даже при играх пожестче. Лубрикант Erotist Cooling имеет водную основу: он гипоаллергенен, совместим с презервативами и игрушками для взрослых, не оставляет следов и легко смывается водой. Охлаждающий лубрикант на водной основе Erotist Cooling (250 мл).  Охлаждающий лубрикант на водной основе Erotist Cooling (250 мл). Модель: erotist-541606. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: EROTIST. </t>
+          <t xml:space="preserve">.Презервативы GANZO RIBS No3 Ребристые.  Презервативы GANZO RIBS No3 Ребристые. Модель: ganzo-00-00000122. Презервативы. Вибраторы и фаллоимитаторы. Презервативы &gt; Обычные. Цвет: Прозрачные. Батареек нет в комплекте. Бренд: GANZO. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
-          <t>250 мл</t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr">
         <is>
-          <t>250 мл</t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
-      <c r="AA96" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W96" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X96" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>18</v>
+      </c>
       <c r="AB96" t="inlineStr"/>
       <c r="AC96" t="inlineStr"/>
       <c r="AD96" t="inlineStr"/>
@@ -12555,7 +12629,7 @@
       <c r="AM96" t="inlineStr"/>
       <c r="AN96" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>3 презерватива с накопителем и силиконовой смазкой</t>
         </is>
       </c>
       <c r="AO96" t="inlineStr">
@@ -12575,40 +12649,32 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>FIORE</t>
+          <t>GANZO</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Черные лайкровые чулки под пояс Romance</t>
+          <t>Презервативы GANZO Ultra thin No3 Супер</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-12664-1299</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-16520-1299</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>99999</v>
@@ -12620,17 +12686,17 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12664/12664_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16520/16520_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16520/16520_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16520/16520_3_650.jpg</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чувственные чулки с красивым верхом с рисунком. Шикарная матовая отделка и незримо усиленная часть пальца ноги для элегантности. Черные лайкровые чулки под пояс Romance на резинке 20 Den 4 (L).  Черные лайкровые чулки под пояс Romance на резинке 20 Den 4 (L). Модель: fiore-404019lb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 86% полиамид, 14% эластан. Батареек нет в комплекте. Бренд: FIORE. </t>
+          <t xml:space="preserve">.Презервативы GANZO Ultra thin No3 Супер тонкие.  Презервативы GANZO Ultra thin No3 Супер тонкие. Модель: ganzo-00-00000124. Презервативы. Вибраторы и фаллоимитаторы. Презервативы &gt; Обычные. Цвет: Прозрачные. Батареек нет в комплекте. Бренд: GANZO. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -12643,11 +12709,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>86% полиамид, 14% эластан</t>
-        </is>
-      </c>
+      <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
@@ -12660,11 +12722,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
-      <c r="AA97" t="inlineStr"/>
+      <c r="W97" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X97" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>18</v>
+      </c>
       <c r="AB97" t="inlineStr"/>
       <c r="AC97" t="inlineStr"/>
       <c r="AD97" t="inlineStr"/>
@@ -12683,7 +12755,7 @@
       <c r="AM97" t="inlineStr"/>
       <c r="AN97" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>3 презерватива с накопителем и силиконовой смазкой</t>
         </is>
       </c>
       <c r="AO97" t="inlineStr">
@@ -12703,13 +12775,13 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ФИТО ПРО</t>
+          <t>GANZO</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -12719,12 +12791,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Капсулы для увеличения эрекции ВИГОР</t>
+          <t>Презервативы GANZO Ultra thin No12</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-28314-1299</t>
+          <t>id-16521-1299</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -12740,27 +12812,27 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28314/28314_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28314/28314_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28314/28314_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28314/28314_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16521/16521_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16521/16521_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16521/16521_3_650.jpg</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">ВИГОР АЛИ + препарат для повышения потенции. Препарат действует достаточно долго, поэтому Вы легко можете принять его за 1 час до предполагаемого интима, Вам полезно будет знать, что данное средство можно сочетать с алкоголем (разумеется, в разумных пределах) Препарат ВИГОР АЛИ + не вызывает зависимости и привыкания, не имеет побочных эффектов. Действие: капсулы ВИГОР АЛИ + быстро усваиваются организмом, эффект наступает через 1 час после применения. Действие капсул ВИГОР АЛИ + эффективно стимулируют потенцию, улучшают кровообращение в органах малого таза, повышают сексуальное влечение.Рекомендации по применению: капсулы ВИГОР АЛИ + рекомендуется принимать как здоровым, так и страдающим нарушением эректильных функций, снижением потенции, синдромом хронической усталости. Взрослым принимать по 1 капсуле в день за 1 час до сексуальной активности, действие препарата до 72 часовБАД, НЕ ЯВЛЯЕТСЯ ЛЕКАРСТВОМ. Капсулы для увеличения эрекции ВИГОР АЛИ + (6 шт).  Капсулы для увеличения эрекции ВИГОР АЛИ + (6 шт). Модель: fito-85-1. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Батареек нет в комплекте. Бренд: ФИТО ПРО. </t>
+          <t xml:space="preserve">.Презервативы GANZO Ultra thin No12 Супер тонкие.  Презервативы GANZO Ultra thin No12 Супер тонкие. Модель: ganzo-00-00000125. Презервативы. Вибраторы и фаллоимитаторы. Презервативы &gt; Обычные. Цвет: Прозрачные. Батареек нет в комплекте. Бренд: GANZO. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R98" t="inlineStr"/>
@@ -12776,11 +12848,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="inlineStr"/>
+      <c r="W98" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X98" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>18</v>
+      </c>
       <c r="AB98" t="inlineStr"/>
       <c r="AC98" t="inlineStr"/>
       <c r="AD98" t="inlineStr"/>
@@ -12799,7 +12881,7 @@
       <c r="AM98" t="inlineStr"/>
       <c r="AN98" t="inlineStr">
         <is>
-          <t>6 капсул</t>
+          <t>12 презервативов с накопителем и силиконовой смазкой</t>
         </is>
       </c>
       <c r="AO98" t="inlineStr">
@@ -12819,13 +12901,13 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>FLESHNASH</t>
+          <t>GANZO</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -12835,12 +12917,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Двусторонний мастурбатор копия вагины</t>
+          <t>Презервативы GANZO NEW CLASSIC No3</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-24036-1299</t>
+          <t>id-16518-1299</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -12856,34 +12938,30 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_13_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24036/24036_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16518/16518_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16518/16518_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16518/16518_3_650.jpg</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ты любишь Элли Брилсен? Это та, что Ангелина Дорошенкова.Темноволосая красотка с натуральной грудью, любительница двойного проникновения и группового секса. Посмотри, если не видел)А потом возьми этот мастурбатор и представь себя на месте её партнера.Это точная копия вагины и попки Элли. Трахай её так, как тебе хочется. Жестко, медленно, быстро, параллельно вставляя в анус свой палец  отпусти свою фантазию и воплоти её в жизнь!Мастурбатор сделан в виде пластикового тубуса, внутри которого двухсторонний реалистичный рукав из БИО-кожи. Внутренний рельеф покрыт нежными рёбрами и шишечками. И он очень эффективен в вопросе достижения оргазма. Постарайся быть выносливым)Впрочем, с помощью мастурбатора ты можешь не только снимать напряжение, но и тренировать свою выдержку.На ощупь вагина и попка такие же, как настоящие. И даже лучше! Ведь ты можешь делать с ними, что захочешь.Главное не забудь про смазку. С ней секс будет намного круче.У Флешнаш целая коллекция мастурбаторов-копий других знаменитых девочек.Двусторонний мастурбатор (копия вагины и ануса Ангелины Дорошенковой).  Двусторонний мастурбатор (копия вагины и ануса Ангелины Дорошенковой). Модель: fleshnash-fnd2019. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы Fleshlight, в колбах. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный. Материал: Био кожа (вторая кожа). Батареек нет в комплекте. Бренд: FLESHNASH. </t>
+          <t xml:space="preserve">.Презервативы GANZO NEW CLASSIC No3 Классические с силиконовой смазкой.  Презервативы GANZO NEW CLASSIC No3 Классические с силиконовой смазкой. Модель: ganzo-00-308005. Презервативы. Вибраторы и фаллоимитаторы. Презервативы &gt; Обычные. Цвет: Прозрачные. Батареек нет в комплекте. Бренд: GANZO. </t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>Био кожа (вторая кожа)</t>
-        </is>
-      </c>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr">
         <is>
@@ -12896,27 +12974,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
+      <c r="W99" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X99" t="n">
+        <v>5.83</v>
+      </c>
       <c r="Y99" t="n">
-        <v>24.2</v>
+        <v>19.8</v>
       </c>
       <c r="Z99" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AA99" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
       <c r="AD99" t="inlineStr"/>
       <c r="AE99" t="inlineStr"/>
-      <c r="AF99" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG99" t="n">
-        <v>8</v>
-      </c>
+      <c r="AF99" t="inlineStr"/>
+      <c r="AG99" t="inlineStr"/>
       <c r="AH99" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12929,7 +13007,7 @@
       <c r="AM99" t="inlineStr"/>
       <c r="AN99" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>3 презерватива с накопителем и силиконовой смазкой</t>
         </is>
       </c>
       <c r="AO99" t="inlineStr">
@@ -12949,13 +13027,13 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>FLESHNASH</t>
+          <t>GANZO</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -12965,12 +13043,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Мастурбатор Флешнаш с эффектом отсоса</t>
+          <t>Презервативы GANZO NEW SENSE No3</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-23596-1299</t>
+          <t>id-16519-1299</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -12986,34 +13064,30 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23596/23596_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23596/23596_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23596/23596_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23596/23596_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16519/16519_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16519/16519_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16519/16519_3_650.jpg</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fleshnash Fleshy Touch - мастурбатор с эффектом вакуума! Создает ощущение настоящего отсоса!Новая уникальная серия мастурбаторов от бренда Флешнаш! В разработке материала и внутренней текстуры использованы японские технологии и инженерия. Каждый мастурбатор из серии отличается уникальным внутренним рельефом.Очень мягкий внутри. Мастурбатор выполнен из очень нежного материала - силикона, который буквально будет повторять форму твоего члена. Fleshy Touch собрал в себе все лучшие качества, чтобы доставлять максимальное удовольствие своему обладателю:  -  Удивительное всасывание  -  Удобный уход  -  Уникальный рельеф  -  Безопасный для кожи материалВнутренний рукав наполнен многофункциональными выпуклостями и уникальным рельефом. Начинается все с узкой дырочки, которая предвещает настоящий бум страсти. Затем твоего дружка встречает отсек с ребристым и круглым рельефом. А затем самое интересное!Узкий длинный тоннель, который закручивается и сливается воедино с твоим телом, тебе буквально придется проталкивать член по этому ребристому каналу. Рельеф выполнен таким образом, чтобы стимулировать не только основной ствол члена. Ты сможешь ласкать уздечку полового члена, или даже головку!Сняв наклейку с основания игрушки, ты увидишь дырочку - это специальный клапан. Закрыв его пальцем, мы получаем супер мощный вакуум, как при минете! А открыв, даем воздуху наполнять мастурбатор, придавая очень мощный контраст. Ты можешь комбинировать стимуляцию, открывая и закрывая вакуум.Ухаживать за мастурбаторами Флешнаш очень просто! Ты достаешь мягкий рукав из пластиковой тубы, моешь его в теплой водичке и сушишь. А затем просто помещаешь его обратно, где он будет ждать следующего раза.Fleshy Touch - стильный, качественный и очень крутой мастурбатор. Ты просто обязан его попробовать!.Мастурбатор Флешнаш с эффектом отсоса Fleshy Touch.  Мастурбатор Флешнаш с эффектом отсоса Fleshy Touch. Модель: fleshnash-fnf9016. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы Fleshlight, в колбах. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: белый. Материал: мягкий силикон (имитация кожи человека), пластик. Батареек нет в комплекте. Бренд: FLESHNASH. </t>
+          <t xml:space="preserve">.Презервативы GANZO NEW SENSE No3 Ультратонкие.  Презервативы GANZO NEW SENSE No3 Ультратонкие. Модель: ganzo-00-308009. Презервативы. Вибраторы и фаллоимитаторы. Презервативы &gt; Обычные. Цвет: Прозрачные. Батареек нет в комплекте. Бренд: GANZO. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>мягкий силикон (имитация кожи человека), пластик</t>
-        </is>
-      </c>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr">
         <is>
@@ -13026,27 +13100,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
+      <c r="W100" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X100" t="n">
+        <v>5.83</v>
+      </c>
       <c r="Y100" t="n">
-        <v>17.6</v>
+        <v>19.8</v>
       </c>
       <c r="Z100" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AA100" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
       <c r="AD100" t="inlineStr"/>
       <c r="AE100" t="inlineStr"/>
-      <c r="AF100" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>6.5</v>
-      </c>
+      <c r="AF100" t="inlineStr"/>
+      <c r="AG100" t="inlineStr"/>
       <c r="AH100" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -13059,7 +13133,7 @@
       <c r="AM100" t="inlineStr"/>
       <c r="AN100" t="inlineStr">
         <is>
-          <t>мастурбатор в колбе, пробник смазки</t>
+          <t xml:space="preserve">3 презерватива с силиконовой смазкой </t>
         </is>
       </c>
       <c r="AO100" t="inlineStr">
@@ -13085,22 +13159,22 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>GANZO</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Перезаряжаемый черный вибратор</t>
+          <t>Презервативы GANZO NEW EXTASE No3</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-28290-1299</t>
+          <t>id-16522-1299</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -13116,17 +13190,17 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28290/28290_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28290/28290_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28290/28290_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16522/16522_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16522/16522_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16522/16522_3_650.jpg</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стильный черный вибратор с золотыми вставками Fredericks удовлетворит даже самых искушенных, начиная от своего внешнего вида до функционала! Перезаряжаемый вибратор с оригинальным рельефом имеет 10 различных функций вибраций. Сделан массажер из мягкого силикона с бархатистой поверхностью, что максимально приятно ощущается слизистыми. Вибратор подойдет как для стимуляции вагины, так и ануса.Заряжается массажер от usb, время зарядки составляет 2 часа, время работы до 1,5 часов. Вибратор имеет travel-lock (защиту от внезапного включения) для этого задержите кнопку включения на массажере на 3 секунды дожидаясь подсветки, а за тем переключайте режимы соседней кнопкой. Перезаряжаемый черный вибратор Fredericks (10 режимов).  Перезаряжаемый черный вибратор Fredericks (10 режимов). Модель: fredericks-010. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Цвет: черный с золотым. Материал: силикон двойной плотности. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">.Презервативы GANZO NEW EXTASE No3 Точечно-ребристые.  Презервативы GANZO NEW EXTASE No3 Точечно-ребристые. Модель: ganzo-00-308011. Презервативы. Вибраторы и фаллоимитаторы. Презервативы &gt; Обычные. Цвет: Прозрачные. Батареек нет в комплекте. Бренд: GANZO. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -13139,11 +13213,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>силикон двойной плотности</t>
-        </is>
-      </c>
+      <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr">
         <is>
@@ -13156,31 +13226,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
+      <c r="W101" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X101" t="n">
+        <v>5.83</v>
+      </c>
       <c r="Y101" t="n">
-        <v>23.65</v>
+        <v>19.8</v>
       </c>
       <c r="Z101" t="n">
-        <v>21.5</v>
+        <v>18</v>
       </c>
       <c r="AA101" t="n">
-        <v>21.5</v>
+        <v>18</v>
       </c>
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="inlineStr"/>
-      <c r="AD101" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="AF101" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AG101" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr"/>
+      <c r="AF101" t="inlineStr"/>
+      <c r="AG101" t="inlineStr"/>
       <c r="AH101" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -13193,7 +13259,7 @@
       <c r="AM101" t="inlineStr"/>
       <c r="AN101" t="inlineStr">
         <is>
-          <t>вибратор, зарядное USB-устройство, мешочек для хранения, комплект для упаковки (оберточная бумага, атласная лента, подарочная открытка в конверте)</t>
+          <t>3 презерватива с накопителем и силиконовой смазкой</t>
         </is>
       </c>
       <c r="AO101" t="inlineStr">
